--- a/docs/z_4 convex.xlsx
+++ b/docs/z_4 convex.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>S</t>
   </si>
@@ -108,6 +108,18 @@
     <t>WITH EXCEPTIONS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PODRIAS USAR EXACTAMENTE LO MISMO (OSDI), EN SENTIDO INVERSO,
+PARA TRATAR DE PREDECIR LAS CONVEXIDADES.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOLVER PLANNING AHORA QUE HAY INCÓGNITAS,
+BASÁNDOSE EN EL COMMON CODE, ES PLANTEABLE.
+REDEFINE EL CONCEPTO DE ALLOCENTRÍA.
+REDEFINE EL CONCEPTO DE ACCIÓN.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +173,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,15 +428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,18 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -465,7 +462,88 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +882,7 @@
   <dimension ref="B2:CF83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="AW58" sqref="AW58"/>
+      <selection activeCell="AM13" sqref="AM13:BH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.28515625" defaultRowHeight="9" customHeight="1"/>
@@ -881,12 +959,21 @@
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
+      <c r="AE2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -996,110 +1083,119 @@
       <c r="CF3" s="4"/>
     </row>
     <row r="4" spans="2:84" ht="9" customHeight="1">
-      <c r="B4" s="17">
+      <c r="B4" s="50">
         <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="45">
         <v>1</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="17">
+      <c r="I4" s="50">
         <v>1</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="43">
         <v>1</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="45">
         <v>1</v>
       </c>
       <c r="O4" s="12"/>
-      <c r="P4" s="17">
+      <c r="P4" s="50">
         <v>1</v>
       </c>
       <c r="R4" s="6">
         <v>0</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="43">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <v>0</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="45">
         <v>1</v>
       </c>
       <c r="V4" s="12"/>
-      <c r="W4" s="17">
+      <c r="W4" s="50">
         <v>1</v>
       </c>
       <c r="Y4" s="6">
         <v>0</v>
       </c>
-      <c r="Z4" s="50">
+      <c r="Z4" s="43">
         <v>1</v>
       </c>
       <c r="AA4" s="8">
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="36" t="s">
+      <c r="AB4" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BD4" s="35" t="s">
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BJ4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
     </row>
     <row r="5" spans="2:84" ht="9" customHeight="1">
-      <c r="B5" s="39">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="44">
         <v>1</v>
       </c>
       <c r="F5" s="12">
@@ -1109,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="39">
+      <c r="I5" s="18">
         <v>0</v>
       </c>
       <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="44">
         <v>1</v>
       </c>
       <c r="M5" s="12">
@@ -1125,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="12"/>
-      <c r="P5" s="39">
+      <c r="P5" s="18">
         <v>1</v>
       </c>
       <c r="R5" s="10">
         <v>0</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="44">
         <v>1</v>
       </c>
       <c r="T5" s="12">
@@ -1141,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="V5" s="12"/>
-      <c r="W5" s="39">
+      <c r="W5" s="18">
         <v>0</v>
       </c>
       <c r="Y5" s="10">
         <v>1</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="44">
         <v>1</v>
       </c>
       <c r="AA5" s="12">
@@ -1156,41 +1252,48 @@
       <c r="AB5" s="13">
         <v>0</v>
       </c>
-      <c r="AE5" s="41"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="35"/>
-      <c r="BF5" s="35"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="57"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
+      <c r="BC5" s="69"/>
+      <c r="BD5" s="69"/>
+      <c r="BE5" s="69"/>
+      <c r="BF5" s="69"/>
+      <c r="BG5" s="69"/>
+      <c r="BH5" s="69"/>
+      <c r="BJ5" s="70"/>
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="70"/>
     </row>
     <row r="6" spans="2:84" ht="9" customHeight="1">
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="B6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44">
         <v>1</v>
       </c>
       <c r="F6" s="12">
@@ -1200,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="51">
+      <c r="I6" s="51">
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+      <c r="L6" s="44">
         <v>1</v>
       </c>
       <c r="M6" s="12">
@@ -1216,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="12"/>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
-        <v>1</v>
-      </c>
-      <c r="S6" s="51">
+      <c r="P6" s="51">
+        <v>0</v>
+      </c>
+      <c r="R6" s="47">
+        <v>1</v>
+      </c>
+      <c r="S6" s="44">
         <v>1</v>
       </c>
       <c r="T6" s="12">
@@ -1232,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="V6" s="12"/>
-      <c r="W6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="51">
+      <c r="W6" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="44">
         <v>1</v>
       </c>
       <c r="AA6" s="12">
@@ -1247,136 +1350,154 @@
       <c r="AB6" s="13">
         <v>0</v>
       </c>
-      <c r="AE6" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
+      <c r="AE6" s="51">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="57"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="70"/>
+      <c r="BL6" s="70"/>
     </row>
     <row r="7" spans="2:84" ht="9" customHeight="1">
-      <c r="B7" s="18">
+      <c r="B7" s="51">
         <v>1</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="44">
         <v>1</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="46">
         <v>1</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="18">
+      <c r="I7" s="51">
         <v>1</v>
       </c>
       <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="44">
         <v>1</v>
       </c>
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="46">
         <v>1</v>
       </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="18">
+      <c r="P7" s="51">
         <v>1</v>
       </c>
       <c r="R7" s="10">
         <v>0</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="44">
         <v>1</v>
       </c>
       <c r="T7" s="12">
         <v>0</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="46">
         <v>1</v>
       </c>
       <c r="V7" s="12"/>
-      <c r="W7" s="18">
+      <c r="W7" s="51">
         <v>1</v>
       </c>
       <c r="Y7" s="10">
         <v>0</v>
       </c>
-      <c r="Z7" s="51">
+      <c r="Z7" s="44">
         <v>1</v>
       </c>
       <c r="AA7" s="12">
         <v>0</v>
       </c>
-      <c r="AB7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
+      <c r="AB7" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="51">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="70"/>
+      <c r="BL7" s="70"/>
     </row>
     <row r="8" spans="2:84" ht="9" customHeight="1">
-      <c r="B8" s="39">
+      <c r="B8" s="18">
         <v>0</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="44">
         <v>1</v>
       </c>
       <c r="F8" s="12">
@@ -1386,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="39">
+      <c r="I8" s="18">
         <v>1</v>
       </c>
       <c r="K8" s="10">
         <v>0</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="44">
         <v>1</v>
       </c>
       <c r="M8" s="12">
@@ -1402,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="O8" s="12"/>
-      <c r="P8" s="39">
+      <c r="P8" s="18">
         <v>1</v>
       </c>
       <c r="R8" s="10">
         <v>0</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="44">
         <v>1</v>
       </c>
       <c r="T8" s="12">
@@ -1418,13 +1539,13 @@
         <v>1</v>
       </c>
       <c r="V8" s="12"/>
-      <c r="W8" s="39">
+      <c r="W8" s="18">
         <v>0</v>
       </c>
       <c r="Y8" s="10">
         <v>1</v>
       </c>
-      <c r="Z8" s="51">
+      <c r="Z8" s="44">
         <v>1</v>
       </c>
       <c r="AA8" s="12">
@@ -1433,41 +1554,48 @@
       <c r="AB8" s="13">
         <v>0</v>
       </c>
-      <c r="AE8" s="41"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="36"/>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="36"/>
-      <c r="BB8" s="36"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="57"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
     </row>
     <row r="9" spans="2:84" ht="9" customHeight="1">
-      <c r="B9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="51">
+      <c r="B9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="47">
+        <v>1</v>
+      </c>
+      <c r="E9" s="44">
         <v>1</v>
       </c>
       <c r="F9" s="12">
@@ -1477,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="51">
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="K9" s="47">
+        <v>1</v>
+      </c>
+      <c r="L9" s="44">
         <v>1</v>
       </c>
       <c r="M9" s="12">
@@ -1493,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
-        <v>1</v>
-      </c>
-      <c r="S9" s="51">
+      <c r="P9" s="51">
+        <v>0</v>
+      </c>
+      <c r="R9" s="47">
+        <v>1</v>
+      </c>
+      <c r="S9" s="44">
         <v>1</v>
       </c>
       <c r="T9" s="12">
@@ -1509,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="V9" s="12"/>
-      <c r="W9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="51">
+      <c r="W9" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="44">
         <v>1</v>
       </c>
       <c r="AA9" s="12">
@@ -1524,37 +1652,46 @@
       <c r="AB9" s="13">
         <v>0</v>
       </c>
-      <c r="AE9" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35"/>
+      <c r="AE9" s="51">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="57"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="69"/>
+      <c r="BE9" s="69"/>
+      <c r="BF9" s="69"/>
+      <c r="BG9" s="69"/>
+      <c r="BH9" s="69"/>
+      <c r="BJ9" s="70"/>
+      <c r="BK9" s="70"/>
+      <c r="BL9" s="70"/>
     </row>
     <row r="10" spans="2:84" ht="9" customHeight="1">
-      <c r="B10" s="18">
+      <c r="B10" s="51">
         <v>0</v>
       </c>
       <c r="D10" s="10">
@@ -1570,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="18">
+      <c r="I10" s="51">
         <v>0</v>
       </c>
       <c r="K10" s="10">
@@ -1586,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12"/>
-      <c r="P10" s="18">
+      <c r="P10" s="51">
         <v>0</v>
       </c>
       <c r="R10" s="10">
@@ -1602,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="12"/>
-      <c r="W10" s="18">
+      <c r="W10" s="51">
         <v>0</v>
       </c>
       <c r="Y10" s="10">
@@ -1617,37 +1754,42 @@
       <c r="AB10" s="13">
         <v>0</v>
       </c>
-      <c r="AE10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BD10" s="35"/>
-      <c r="BE10" s="35"/>
-      <c r="BF10" s="35"/>
+      <c r="AE10" s="51">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="57"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="69"/>
+      <c r="BG10" s="69"/>
+      <c r="BH10" s="69"/>
+      <c r="BJ10" s="70"/>
+      <c r="BK10" s="70"/>
+      <c r="BL10" s="70"/>
     </row>
     <row r="11" spans="2:84" ht="9" customHeight="1" thickBot="1">
-      <c r="B11" s="19">
+      <c r="B11" s="52">
         <v>0</v>
       </c>
       <c r="D11" s="14">
@@ -1663,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="19">
+      <c r="I11" s="52">
         <v>0</v>
       </c>
       <c r="K11" s="14">
@@ -1679,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="12"/>
-      <c r="P11" s="19">
+      <c r="P11" s="52">
         <v>0</v>
       </c>
       <c r="R11" s="14">
@@ -1695,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="12"/>
-      <c r="W11" s="19">
+      <c r="W11" s="52">
         <v>0</v>
       </c>
       <c r="Y11" s="14">
@@ -1710,34 +1852,39 @@
       <c r="AB11" s="16">
         <v>0</v>
       </c>
-      <c r="AE11" s="42">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="36"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="35"/>
+      <c r="AE11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="59"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="69"/>
+      <c r="BE11" s="69"/>
+      <c r="BF11" s="69"/>
+      <c r="BG11" s="69"/>
+      <c r="BH11" s="69"/>
+      <c r="BJ11" s="70"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
     </row>
     <row r="12" spans="2:84" ht="9" customHeight="1" thickBot="1">
       <c r="B12" s="4"/>
@@ -1754,75 +1901,83 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="AE12" s="43"/>
+      <c r="AE12" s="36"/>
     </row>
     <row r="13" spans="2:84" ht="9" customHeight="1">
-      <c r="B13" s="17">
+      <c r="B13" s="50">
         <v>1</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="43">
         <v>1</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="45">
         <v>1</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="17">
+      <c r="I13" s="50">
         <v>1</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="43">
         <v>1</v>
       </c>
       <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="36" t="s">
+      <c r="N13" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="36"/>
-      <c r="BB13" s="36"/>
-      <c r="BD13" s="35" t="s">
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BJ13" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="70"/>
     </row>
     <row r="14" spans="2:84" ht="9" customHeight="1">
-      <c r="B14" s="18">
+      <c r="B14" s="51">
         <v>0</v>
       </c>
       <c r="D14" s="10">
@@ -1831,14 +1986,14 @@
       <c r="E14" s="30">
         <v>0</v>
       </c>
-      <c r="F14" s="52">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
+      <c r="G14" s="46">
         <v>1</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="18">
+      <c r="I14" s="51">
         <v>0</v>
       </c>
       <c r="K14" s="10">
@@ -1847,49 +2002,57 @@
       <c r="L14" s="30">
         <v>0</v>
       </c>
-      <c r="M14" s="52">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
+      <c r="M14" s="44">
+        <v>1</v>
+      </c>
+      <c r="N14" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="69"/>
+      <c r="BE14" s="69"/>
+      <c r="BF14" s="69"/>
+      <c r="BG14" s="69"/>
+      <c r="BH14" s="69"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
+      <c r="BL14" s="70"/>
     </row>
     <row r="15" spans="2:84" ht="9" customHeight="1">
-      <c r="B15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="51">
+      <c r="B15" s="51">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>1</v>
+      </c>
+      <c r="E15" s="44">
         <v>1</v>
       </c>
       <c r="F15" s="12">
@@ -1899,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1</v>
-      </c>
-      <c r="L15" s="51">
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>1</v>
+      </c>
+      <c r="L15" s="44">
         <v>1</v>
       </c>
       <c r="M15" s="12">
@@ -1914,104 +2077,120 @@
       <c r="N15" s="13">
         <v>0</v>
       </c>
-      <c r="AE15" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="36"/>
-      <c r="BA15" s="36"/>
-      <c r="BB15" s="36"/>
-      <c r="BD15" s="35"/>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="35"/>
+      <c r="AE15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="13"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="69"/>
+      <c r="BE15" s="69"/>
+      <c r="BF15" s="69"/>
+      <c r="BG15" s="69"/>
+      <c r="BH15" s="69"/>
+      <c r="BJ15" s="70"/>
+      <c r="BK15" s="70"/>
+      <c r="BL15" s="70"/>
     </row>
     <row r="16" spans="2:84" ht="9" customHeight="1">
-      <c r="B16" s="18">
+      <c r="B16" s="51">
         <v>1</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="44">
         <v>1</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="46">
         <v>1</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="18">
+      <c r="I16" s="51">
         <v>1</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="44">
         <v>1</v>
       </c>
       <c r="M16" s="12">
         <v>0</v>
       </c>
-      <c r="N16" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="36"/>
-      <c r="BA16" s="36"/>
-      <c r="BB16" s="36"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-    </row>
-    <row r="17" spans="2:58" ht="9" customHeight="1">
-      <c r="B17" s="39">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="51">
+      <c r="N16" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+      <c r="BC16" s="69"/>
+      <c r="BD16" s="69"/>
+      <c r="BE16" s="69"/>
+      <c r="BF16" s="69"/>
+      <c r="BG16" s="69"/>
+      <c r="BH16" s="69"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="70"/>
+      <c r="BL16" s="70"/>
+    </row>
+    <row r="17" spans="2:64" ht="9" customHeight="1">
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1</v>
+      </c>
+      <c r="E17" s="44">
         <v>1</v>
       </c>
       <c r="F17" s="12">
@@ -2021,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="39">
+      <c r="I17" s="18">
         <v>1</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="44">
         <v>1</v>
       </c>
       <c r="M17" s="12">
@@ -2036,41 +2215,47 @@
       <c r="N17" s="13">
         <v>1</v>
       </c>
-      <c r="AE17" s="41"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="36"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="35"/>
-      <c r="BF17" s="35"/>
-    </row>
-    <row r="18" spans="2:58" ht="9" customHeight="1">
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="51">
+      <c r="AE17" s="54"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="13"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="69"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="69"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="70"/>
+      <c r="BL17" s="70"/>
+    </row>
+    <row r="18" spans="2:64" ht="9" customHeight="1">
+      <c r="B18" s="51">
+        <v>0</v>
+      </c>
+      <c r="D18" s="47">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
         <v>1</v>
       </c>
       <c r="F18" s="12">
@@ -2080,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="51">
+      <c r="I18" s="51">
+        <v>0</v>
+      </c>
+      <c r="K18" s="47">
+        <v>1</v>
+      </c>
+      <c r="L18" s="44">
         <v>1</v>
       </c>
       <c r="M18" s="12">
@@ -2095,37 +2280,45 @@
       <c r="N18" s="13">
         <v>0</v>
       </c>
-      <c r="AE18" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-    </row>
-    <row r="19" spans="2:58" ht="9" customHeight="1">
-      <c r="B19" s="18">
+      <c r="AE18" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="13"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
+      <c r="BC18" s="69"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="69"/>
+      <c r="BG18" s="69"/>
+      <c r="BH18" s="69"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
+      <c r="BL18" s="70"/>
+    </row>
+    <row r="19" spans="2:64" ht="9" customHeight="1">
+      <c r="B19" s="51">
         <v>1</v>
       </c>
       <c r="D19" s="10">
@@ -2141,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="18">
+      <c r="I19" s="51">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -2156,37 +2349,41 @@
       <c r="N19" s="13">
         <v>0</v>
       </c>
-      <c r="AE19" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-      <c r="BF19" s="35"/>
-    </row>
-    <row r="20" spans="2:58" ht="9" customHeight="1" thickBot="1">
-      <c r="B20" s="19">
+      <c r="AE19" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="13"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
+      <c r="BE19" s="69"/>
+      <c r="BF19" s="69"/>
+      <c r="BG19" s="69"/>
+      <c r="BH19" s="69"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="70"/>
+      <c r="BL19" s="70"/>
+    </row>
+    <row r="20" spans="2:64" ht="9" customHeight="1" thickBot="1">
+      <c r="B20" s="52">
         <v>0</v>
       </c>
       <c r="D20" s="14">
@@ -2202,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="19">
+      <c r="I20" s="52">
         <v>0</v>
       </c>
       <c r="K20" s="14">
@@ -2217,36 +2414,40 @@
       <c r="N20" s="16">
         <v>0</v>
       </c>
-      <c r="AE20" s="42">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="36"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="35"/>
-      <c r="BF20" s="35"/>
-    </row>
-    <row r="21" spans="2:58" ht="9" customHeight="1" thickBot="1">
+      <c r="AE20" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="16"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="69"/>
+      <c r="BE20" s="69"/>
+      <c r="BF20" s="69"/>
+      <c r="BG20" s="69"/>
+      <c r="BH20" s="69"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
+      <c r="BL20" s="70"/>
+    </row>
+    <row r="21" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B21" s="4"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2261,136 +2462,152 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="AE21" s="43"/>
-    </row>
-    <row r="22" spans="2:58" ht="9" customHeight="1">
-      <c r="B22" s="17">
+      <c r="AE21" s="36"/>
+    </row>
+    <row r="22" spans="2:64" ht="9" customHeight="1">
+      <c r="B22" s="50">
         <v>1</v>
       </c>
       <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="43">
         <v>1</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="45">
         <v>1</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="I22" s="17">
+      <c r="I22" s="50">
         <v>1</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="50">
+      <c r="L22" s="43">
         <v>1</v>
       </c>
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="36" t="s">
+      <c r="N22" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="36"/>
-      <c r="AZ22" s="36"/>
-      <c r="BA22" s="36"/>
-      <c r="BB22" s="36"/>
-      <c r="BD22" s="35" t="s">
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="69"/>
+      <c r="BD22" s="69"/>
+      <c r="BE22" s="69"/>
+      <c r="BF22" s="69"/>
+      <c r="BG22" s="69"/>
+      <c r="BH22" s="69"/>
+      <c r="BJ22" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-    </row>
-    <row r="23" spans="2:58" ht="9" customHeight="1">
-      <c r="B23" s="18">
+      <c r="BK22" s="70"/>
+      <c r="BL22" s="70"/>
+    </row>
+    <row r="23" spans="2:64" ht="9" customHeight="1">
+      <c r="B23" s="51">
         <v>1</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="44">
         <v>1</v>
       </c>
       <c r="F23" s="12">
         <v>0</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="46">
         <v>1</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="18">
+      <c r="I23" s="51">
         <v>1</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="44">
         <v>1</v>
       </c>
       <c r="M23" s="12">
         <v>0</v>
       </c>
-      <c r="N23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-    </row>
-    <row r="24" spans="2:58" ht="9" customHeight="1">
-      <c r="B24" s="18">
+      <c r="N23" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="69"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="69"/>
+      <c r="AS23" s="69"/>
+      <c r="AT23" s="69"/>
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
+      <c r="BC23" s="69"/>
+      <c r="BD23" s="69"/>
+      <c r="BE23" s="69"/>
+      <c r="BF23" s="69"/>
+      <c r="BG23" s="69"/>
+      <c r="BH23" s="69"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
+      <c r="BL23" s="70"/>
+    </row>
+    <row r="24" spans="2:64" ht="9" customHeight="1">
+      <c r="B24" s="51">
         <v>0</v>
       </c>
       <c r="D24" s="10">
@@ -2399,14 +2616,14 @@
       <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="F24" s="52">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="44">
+        <v>1</v>
+      </c>
+      <c r="G24" s="46">
         <v>1</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="18">
+      <c r="I24" s="51">
         <v>0</v>
       </c>
       <c r="K24" s="10">
@@ -2415,110 +2632,126 @@
       <c r="L24" s="30">
         <v>0</v>
       </c>
-      <c r="M24" s="52">
-        <v>1</v>
-      </c>
-      <c r="N24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
-      <c r="BA24" s="36"/>
-      <c r="BB24" s="36"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="35"/>
-    </row>
-    <row r="25" spans="2:58" ht="9" customHeight="1">
-      <c r="B25" s="18">
+      <c r="M24" s="44">
+        <v>1</v>
+      </c>
+      <c r="N24" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="69"/>
+      <c r="BA24" s="69"/>
+      <c r="BB24" s="69"/>
+      <c r="BC24" s="69"/>
+      <c r="BD24" s="69"/>
+      <c r="BE24" s="69"/>
+      <c r="BF24" s="69"/>
+      <c r="BG24" s="69"/>
+      <c r="BH24" s="69"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
+      <c r="BL24" s="70"/>
+    </row>
+    <row r="25" spans="2:64" ht="9" customHeight="1">
+      <c r="B25" s="51">
         <v>1</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="44">
         <v>1</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="46">
         <v>1</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="18">
+      <c r="I25" s="51">
         <v>1</v>
       </c>
       <c r="K25" s="10">
         <v>0</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="44">
         <v>1</v>
       </c>
       <c r="M25" s="12">
         <v>0</v>
       </c>
-      <c r="N25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
-      <c r="BD25" s="35"/>
-      <c r="BE25" s="35"/>
-      <c r="BF25" s="35"/>
-    </row>
-    <row r="26" spans="2:58" ht="9" customHeight="1">
-      <c r="B26" s="39">
+      <c r="N25" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="69"/>
+      <c r="BD25" s="69"/>
+      <c r="BE25" s="69"/>
+      <c r="BF25" s="69"/>
+      <c r="BG25" s="69"/>
+      <c r="BH25" s="69"/>
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="70"/>
+      <c r="BL25" s="70"/>
+    </row>
+    <row r="26" spans="2:64" ht="9" customHeight="1">
+      <c r="B26" s="18">
         <v>1</v>
       </c>
       <c r="D26" s="10">
         <v>0</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="44">
         <v>1</v>
       </c>
       <c r="F26" s="12">
@@ -2528,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="I26" s="39">
+      <c r="I26" s="18">
         <v>0</v>
       </c>
       <c r="K26" s="10">
         <v>1</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="44">
         <v>1</v>
       </c>
       <c r="M26" s="12">
@@ -2543,41 +2776,47 @@
       <c r="N26" s="13">
         <v>0</v>
       </c>
-      <c r="AE26" s="41"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BD26" s="35"/>
-      <c r="BE26" s="35"/>
-      <c r="BF26" s="35"/>
-    </row>
-    <row r="27" spans="2:58" ht="9" customHeight="1">
-      <c r="B27" s="18">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="51">
+      <c r="AE26" s="54"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="13"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="69"/>
+      <c r="AS26" s="69"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
+      <c r="BC26" s="69"/>
+      <c r="BD26" s="69"/>
+      <c r="BE26" s="69"/>
+      <c r="BF26" s="69"/>
+      <c r="BG26" s="69"/>
+      <c r="BH26" s="69"/>
+      <c r="BJ26" s="70"/>
+      <c r="BK26" s="70"/>
+      <c r="BL26" s="70"/>
+    </row>
+    <row r="27" spans="2:64" ht="9" customHeight="1">
+      <c r="B27" s="51">
+        <v>0</v>
+      </c>
+      <c r="D27" s="47">
+        <v>1</v>
+      </c>
+      <c r="E27" s="44">
         <v>1</v>
       </c>
       <c r="F27" s="12">
@@ -2587,13 +2826,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="51">
+      <c r="I27" s="51">
+        <v>0</v>
+      </c>
+      <c r="K27" s="47">
+        <v>1</v>
+      </c>
+      <c r="L27" s="44">
         <v>1</v>
       </c>
       <c r="M27" s="12">
@@ -2602,37 +2841,45 @@
       <c r="N27" s="13">
         <v>0</v>
       </c>
-      <c r="AE27" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
-      <c r="BA27" s="36"/>
-      <c r="BB27" s="36"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="35"/>
-      <c r="BF27" s="35"/>
-    </row>
-    <row r="28" spans="2:58" ht="9" customHeight="1">
-      <c r="B28" s="18">
+      <c r="AE27" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="13"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="69"/>
+      <c r="AS27" s="69"/>
+      <c r="AT27" s="69"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="69"/>
+      <c r="BE27" s="69"/>
+      <c r="BF27" s="69"/>
+      <c r="BG27" s="69"/>
+      <c r="BH27" s="69"/>
+      <c r="BJ27" s="70"/>
+      <c r="BK27" s="70"/>
+      <c r="BL27" s="70"/>
+    </row>
+    <row r="28" spans="2:64" ht="9" customHeight="1">
+      <c r="B28" s="51">
         <v>1</v>
       </c>
       <c r="D28" s="10">
@@ -2648,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="12"/>
-      <c r="I28" s="18">
+      <c r="I28" s="51">
         <v>1</v>
       </c>
       <c r="K28" s="10">
@@ -2663,37 +2910,41 @@
       <c r="N28" s="13">
         <v>0</v>
       </c>
-      <c r="AE28" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="36"/>
-      <c r="BD28" s="35"/>
-      <c r="BE28" s="35"/>
-      <c r="BF28" s="35"/>
-    </row>
-    <row r="29" spans="2:58" ht="9" customHeight="1" thickBot="1">
-      <c r="B29" s="19">
+      <c r="AE28" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="13"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="69"/>
+      <c r="BF28" s="69"/>
+      <c r="BG28" s="69"/>
+      <c r="BH28" s="69"/>
+      <c r="BJ28" s="70"/>
+      <c r="BK28" s="70"/>
+      <c r="BL28" s="70"/>
+    </row>
+    <row r="29" spans="2:64" ht="9" customHeight="1" thickBot="1">
+      <c r="B29" s="52">
         <v>0</v>
       </c>
       <c r="D29" s="14">
@@ -2709,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="12"/>
-      <c r="I29" s="19">
+      <c r="I29" s="52">
         <v>0</v>
       </c>
       <c r="K29" s="14">
@@ -2724,36 +2975,40 @@
       <c r="N29" s="16">
         <v>0</v>
       </c>
-      <c r="AE29" s="42">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="36"/>
-      <c r="BB29" s="36"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="35"/>
-      <c r="BF29" s="35"/>
-    </row>
-    <row r="30" spans="2:58" ht="9" customHeight="1" thickBot="1">
+      <c r="AE29" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="16"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="69"/>
+      <c r="BC29" s="69"/>
+      <c r="BD29" s="69"/>
+      <c r="BE29" s="69"/>
+      <c r="BF29" s="69"/>
+      <c r="BG29" s="69"/>
+      <c r="BH29" s="69"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="70"/>
+    </row>
+    <row r="30" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -2768,81 +3023,89 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="AE30" s="43"/>
-    </row>
-    <row r="31" spans="2:58" ht="9" customHeight="1">
-      <c r="B31" s="17">
+      <c r="AE30" s="36"/>
+    </row>
+    <row r="31" spans="2:64" ht="9" customHeight="1">
+      <c r="B31" s="50">
         <v>1</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="43">
         <v>1</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="45">
         <v>1</v>
       </c>
       <c r="H31" s="12"/>
-      <c r="I31" s="17">
+      <c r="I31" s="50">
         <v>1</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L31" s="43">
         <v>1</v>
       </c>
       <c r="M31" s="8">
         <v>0</v>
       </c>
-      <c r="N31" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="36" t="s">
+      <c r="N31" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="36"/>
-      <c r="BD31" s="35" t="s">
+      <c r="AN31" s="69"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="69"/>
+      <c r="AQ31" s="69"/>
+      <c r="AR31" s="69"/>
+      <c r="AS31" s="69"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="69"/>
+      <c r="AZ31" s="69"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
+      <c r="BD31" s="69"/>
+      <c r="BE31" s="69"/>
+      <c r="BF31" s="69"/>
+      <c r="BG31" s="69"/>
+      <c r="BH31" s="69"/>
+      <c r="BJ31" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BE31" s="35"/>
-      <c r="BF31" s="35"/>
-    </row>
-    <row r="32" spans="2:58" ht="9" customHeight="1">
-      <c r="B32" s="39">
+      <c r="BK31" s="70"/>
+      <c r="BL31" s="70"/>
+    </row>
+    <row r="32" spans="2:64" ht="9" customHeight="1">
+      <c r="B32" s="18">
         <v>1</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="44">
         <v>1</v>
       </c>
       <c r="F32" s="12">
@@ -2852,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="12"/>
-      <c r="I32" s="39">
+      <c r="I32" s="18">
         <v>0</v>
       </c>
       <c r="K32" s="10">
         <v>1</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="44">
         <v>1</v>
       </c>
       <c r="M32" s="12">
@@ -2867,41 +3130,47 @@
       <c r="N32" s="13">
         <v>0</v>
       </c>
-      <c r="AE32" s="41"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
-      <c r="BD32" s="35"/>
-      <c r="BE32" s="35"/>
-      <c r="BF32" s="35"/>
-    </row>
-    <row r="33" spans="2:58" ht="9" customHeight="1">
-      <c r="B33" s="18">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="51">
+      <c r="AE32" s="54"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="13"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="69"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="69"/>
+      <c r="AQ32" s="69"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="69"/>
+      <c r="AZ32" s="69"/>
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
+      <c r="BC32" s="69"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="69"/>
+      <c r="BF32" s="69"/>
+      <c r="BG32" s="69"/>
+      <c r="BH32" s="69"/>
+      <c r="BJ32" s="70"/>
+      <c r="BK32" s="70"/>
+      <c r="BL32" s="70"/>
+    </row>
+    <row r="33" spans="2:64" ht="9" customHeight="1">
+      <c r="B33" s="51">
+        <v>0</v>
+      </c>
+      <c r="D33" s="47">
+        <v>1</v>
+      </c>
+      <c r="E33" s="44">
         <v>1</v>
       </c>
       <c r="F33" s="12">
@@ -2911,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="12"/>
-      <c r="I33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1</v>
-      </c>
-      <c r="L33" s="51">
+      <c r="I33" s="51">
+        <v>0</v>
+      </c>
+      <c r="K33" s="47">
+        <v>1</v>
+      </c>
+      <c r="L33" s="44">
         <v>1</v>
       </c>
       <c r="M33" s="12">
@@ -2926,98 +3195,114 @@
       <c r="N33" s="13">
         <v>0</v>
       </c>
-      <c r="AE33" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
-      <c r="AX33" s="36"/>
-      <c r="AY33" s="36"/>
-      <c r="AZ33" s="36"/>
-      <c r="BA33" s="36"/>
-      <c r="BB33" s="36"/>
-      <c r="BD33" s="35"/>
-      <c r="BE33" s="35"/>
-      <c r="BF33" s="35"/>
-    </row>
-    <row r="34" spans="2:58" ht="9" customHeight="1">
-      <c r="B34" s="18">
+      <c r="AE33" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="13"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="69"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="69"/>
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="69"/>
+      <c r="AZ33" s="69"/>
+      <c r="BA33" s="69"/>
+      <c r="BB33" s="69"/>
+      <c r="BC33" s="69"/>
+      <c r="BD33" s="69"/>
+      <c r="BE33" s="69"/>
+      <c r="BF33" s="69"/>
+      <c r="BG33" s="69"/>
+      <c r="BH33" s="69"/>
+      <c r="BJ33" s="70"/>
+      <c r="BK33" s="70"/>
+      <c r="BL33" s="70"/>
+    </row>
+    <row r="34" spans="2:64" ht="9" customHeight="1">
+      <c r="B34" s="51">
         <v>1</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="44">
         <v>1</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="46">
         <v>1</v>
       </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="18">
+      <c r="I34" s="51">
         <v>1</v>
       </c>
       <c r="K34" s="10">
         <v>0</v>
       </c>
-      <c r="L34" s="51">
+      <c r="L34" s="44">
         <v>1</v>
       </c>
       <c r="M34" s="12">
         <v>0</v>
       </c>
-      <c r="N34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36"/>
-      <c r="BD34" s="35"/>
-      <c r="BE34" s="35"/>
-      <c r="BF34" s="35"/>
-    </row>
-    <row r="35" spans="2:58" ht="9" customHeight="1">
-      <c r="B35" s="18">
+      <c r="N34" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="69"/>
+      <c r="AN34" s="69"/>
+      <c r="AO34" s="69"/>
+      <c r="AP34" s="69"/>
+      <c r="AQ34" s="69"/>
+      <c r="AR34" s="69"/>
+      <c r="AS34" s="69"/>
+      <c r="AT34" s="69"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="69"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="69"/>
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
+      <c r="BC34" s="69"/>
+      <c r="BD34" s="69"/>
+      <c r="BE34" s="69"/>
+      <c r="BF34" s="69"/>
+      <c r="BG34" s="69"/>
+      <c r="BH34" s="69"/>
+      <c r="BJ34" s="70"/>
+      <c r="BK34" s="70"/>
+      <c r="BL34" s="70"/>
+    </row>
+    <row r="35" spans="2:64" ht="9" customHeight="1">
+      <c r="B35" s="51">
         <v>0</v>
       </c>
       <c r="D35" s="10">
@@ -3026,14 +3311,14 @@
       <c r="E35" s="30">
         <v>0</v>
       </c>
-      <c r="F35" s="52">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="F35" s="44">
+        <v>1</v>
+      </c>
+      <c r="G35" s="46">
         <v>1</v>
       </c>
       <c r="H35" s="12"/>
-      <c r="I35" s="18">
+      <c r="I35" s="51">
         <v>0</v>
       </c>
       <c r="K35" s="10">
@@ -3042,49 +3327,57 @@
       <c r="L35" s="30">
         <v>0</v>
       </c>
-      <c r="M35" s="52">
-        <v>1</v>
-      </c>
-      <c r="N35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="36"/>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="36"/>
-      <c r="BA35" s="36"/>
-      <c r="BB35" s="36"/>
-      <c r="BD35" s="35"/>
-      <c r="BE35" s="35"/>
-      <c r="BF35" s="35"/>
-    </row>
-    <row r="36" spans="2:58" ht="9" customHeight="1">
-      <c r="B36" s="18">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="51">
+      <c r="M35" s="44">
+        <v>1</v>
+      </c>
+      <c r="N35" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="69"/>
+      <c r="AO35" s="69"/>
+      <c r="AP35" s="69"/>
+      <c r="AQ35" s="69"/>
+      <c r="AR35" s="69"/>
+      <c r="AS35" s="69"/>
+      <c r="AT35" s="69"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="69"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="69"/>
+      <c r="AY35" s="69"/>
+      <c r="AZ35" s="69"/>
+      <c r="BA35" s="69"/>
+      <c r="BB35" s="69"/>
+      <c r="BC35" s="69"/>
+      <c r="BD35" s="69"/>
+      <c r="BE35" s="69"/>
+      <c r="BF35" s="69"/>
+      <c r="BG35" s="69"/>
+      <c r="BH35" s="69"/>
+      <c r="BJ35" s="70"/>
+      <c r="BK35" s="70"/>
+      <c r="BL35" s="70"/>
+    </row>
+    <row r="36" spans="2:64" ht="9" customHeight="1">
+      <c r="B36" s="51">
+        <v>0</v>
+      </c>
+      <c r="D36" s="47">
+        <v>1</v>
+      </c>
+      <c r="E36" s="44">
         <v>1</v>
       </c>
       <c r="F36" s="12">
@@ -3094,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="H36" s="12"/>
-      <c r="I36" s="18">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="51">
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="K36" s="47">
+        <v>1</v>
+      </c>
+      <c r="L36" s="44">
         <v>1</v>
       </c>
       <c r="M36" s="12">
@@ -3109,37 +3402,45 @@
       <c r="N36" s="13">
         <v>0</v>
       </c>
-      <c r="AE36" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="36"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BD36" s="35"/>
-      <c r="BE36" s="35"/>
-      <c r="BF36" s="35"/>
-    </row>
-    <row r="37" spans="2:58" ht="9" customHeight="1">
-      <c r="B37" s="18">
+      <c r="AE36" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="13"/>
+      <c r="AM36" s="69"/>
+      <c r="AN36" s="69"/>
+      <c r="AO36" s="69"/>
+      <c r="AP36" s="69"/>
+      <c r="AQ36" s="69"/>
+      <c r="AR36" s="69"/>
+      <c r="AS36" s="69"/>
+      <c r="AT36" s="69"/>
+      <c r="AU36" s="69"/>
+      <c r="AV36" s="69"/>
+      <c r="AW36" s="69"/>
+      <c r="AX36" s="69"/>
+      <c r="AY36" s="69"/>
+      <c r="AZ36" s="69"/>
+      <c r="BA36" s="69"/>
+      <c r="BB36" s="69"/>
+      <c r="BC36" s="69"/>
+      <c r="BD36" s="69"/>
+      <c r="BE36" s="69"/>
+      <c r="BF36" s="69"/>
+      <c r="BG36" s="69"/>
+      <c r="BH36" s="69"/>
+      <c r="BJ36" s="70"/>
+      <c r="BK36" s="70"/>
+      <c r="BL36" s="70"/>
+    </row>
+    <row r="37" spans="2:64" ht="9" customHeight="1">
+      <c r="B37" s="51">
         <v>0</v>
       </c>
       <c r="D37" s="10">
@@ -3155,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="12"/>
-      <c r="I37" s="18">
+      <c r="I37" s="51">
         <v>0</v>
       </c>
       <c r="K37" s="10">
@@ -3170,37 +3471,41 @@
       <c r="N37" s="13">
         <v>0</v>
       </c>
-      <c r="AE37" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="36"/>
-      <c r="AY37" s="36"/>
-      <c r="AZ37" s="36"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="36"/>
-      <c r="BD37" s="35"/>
-      <c r="BE37" s="35"/>
-      <c r="BF37" s="35"/>
-    </row>
-    <row r="38" spans="2:58" ht="9" customHeight="1" thickBot="1">
-      <c r="B38" s="19">
+      <c r="AE37" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="13"/>
+      <c r="AM37" s="69"/>
+      <c r="AN37" s="69"/>
+      <c r="AO37" s="69"/>
+      <c r="AP37" s="69"/>
+      <c r="AQ37" s="69"/>
+      <c r="AR37" s="69"/>
+      <c r="AS37" s="69"/>
+      <c r="AT37" s="69"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="69"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="69"/>
+      <c r="AZ37" s="69"/>
+      <c r="BA37" s="69"/>
+      <c r="BB37" s="69"/>
+      <c r="BC37" s="69"/>
+      <c r="BD37" s="69"/>
+      <c r="BE37" s="69"/>
+      <c r="BF37" s="69"/>
+      <c r="BG37" s="69"/>
+      <c r="BH37" s="69"/>
+      <c r="BJ37" s="70"/>
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="70"/>
+    </row>
+    <row r="38" spans="2:64" ht="9" customHeight="1" thickBot="1">
+      <c r="B38" s="52">
         <v>1</v>
       </c>
       <c r="D38" s="14">
@@ -3216,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="12"/>
-      <c r="I38" s="19">
+      <c r="I38" s="52">
         <v>1</v>
       </c>
       <c r="K38" s="14">
@@ -3231,36 +3536,40 @@
       <c r="N38" s="16">
         <v>0</v>
       </c>
-      <c r="AE38" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="36"/>
-      <c r="AY38" s="36"/>
-      <c r="AZ38" s="36"/>
-      <c r="BA38" s="36"/>
-      <c r="BB38" s="36"/>
-      <c r="BD38" s="35"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35"/>
-    </row>
-    <row r="39" spans="2:58" ht="9" customHeight="1" thickBot="1">
+      <c r="AE38" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="16"/>
+      <c r="AM38" s="69"/>
+      <c r="AN38" s="69"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="69"/>
+      <c r="AQ38" s="69"/>
+      <c r="AR38" s="69"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="69"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="69"/>
+      <c r="AZ38" s="69"/>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="69"/>
+      <c r="BC38" s="69"/>
+      <c r="BD38" s="69"/>
+      <c r="BE38" s="69"/>
+      <c r="BF38" s="69"/>
+      <c r="BG38" s="69"/>
+      <c r="BH38" s="69"/>
+      <c r="BJ38" s="70"/>
+      <c r="BK38" s="70"/>
+      <c r="BL38" s="70"/>
+    </row>
+    <row r="39" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3275,81 +3584,89 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="AE39" s="43"/>
-    </row>
-    <row r="40" spans="2:58" ht="9" customHeight="1">
-      <c r="B40" s="17">
+      <c r="AE39" s="36"/>
+    </row>
+    <row r="40" spans="2:64" ht="9" customHeight="1">
+      <c r="B40" s="50">
         <v>1</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="50">
+      <c r="E40" s="43">
         <v>1</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="45">
         <v>1</v>
       </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="17">
+      <c r="I40" s="50">
         <v>1</v>
       </c>
       <c r="K40" s="6">
         <v>0</v>
       </c>
-      <c r="L40" s="50">
+      <c r="L40" s="43">
         <v>1</v>
       </c>
       <c r="M40" s="8">
         <v>0</v>
       </c>
-      <c r="N40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="40">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="36" t="s">
+      <c r="N40" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="45">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
-      <c r="AT40" s="36"/>
-      <c r="AU40" s="36"/>
-      <c r="AV40" s="36"/>
-      <c r="AW40" s="36"/>
-      <c r="AX40" s="36"/>
-      <c r="AY40" s="36"/>
-      <c r="AZ40" s="36"/>
-      <c r="BA40" s="36"/>
-      <c r="BB40" s="36"/>
-      <c r="BD40" s="35" t="s">
+      <c r="AN40" s="69"/>
+      <c r="AO40" s="69"/>
+      <c r="AP40" s="69"/>
+      <c r="AQ40" s="69"/>
+      <c r="AR40" s="69"/>
+      <c r="AS40" s="69"/>
+      <c r="AT40" s="69"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="69"/>
+      <c r="AZ40" s="69"/>
+      <c r="BA40" s="69"/>
+      <c r="BB40" s="69"/>
+      <c r="BC40" s="69"/>
+      <c r="BD40" s="69"/>
+      <c r="BE40" s="69"/>
+      <c r="BF40" s="69"/>
+      <c r="BG40" s="69"/>
+      <c r="BH40" s="69"/>
+      <c r="BJ40" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BE40" s="35"/>
-      <c r="BF40" s="35"/>
-    </row>
-    <row r="41" spans="2:58" ht="9" customHeight="1">
-      <c r="B41" s="39">
+      <c r="BK40" s="70"/>
+      <c r="BL40" s="70"/>
+    </row>
+    <row r="41" spans="2:64" ht="9" customHeight="1">
+      <c r="B41" s="18">
         <v>1</v>
       </c>
       <c r="D41" s="10">
         <v>0</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="44">
         <v>1</v>
       </c>
       <c r="F41" s="12">
@@ -3359,13 +3676,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="12"/>
-      <c r="I41" s="39">
+      <c r="I41" s="18">
         <v>0</v>
       </c>
       <c r="K41" s="10">
         <v>1</v>
       </c>
-      <c r="L41" s="51">
+      <c r="L41" s="44">
         <v>1</v>
       </c>
       <c r="M41" s="12">
@@ -3374,41 +3691,47 @@
       <c r="N41" s="13">
         <v>0</v>
       </c>
-      <c r="AE41" s="41"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36"/>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="36"/>
-      <c r="AT41" s="36"/>
-      <c r="AU41" s="36"/>
-      <c r="AV41" s="36"/>
-      <c r="AW41" s="36"/>
-      <c r="AX41" s="36"/>
-      <c r="AY41" s="36"/>
-      <c r="AZ41" s="36"/>
-      <c r="BA41" s="36"/>
-      <c r="BB41" s="36"/>
-      <c r="BD41" s="35"/>
-      <c r="BE41" s="35"/>
-      <c r="BF41" s="35"/>
-    </row>
-    <row r="42" spans="2:58" ht="9" customHeight="1">
-      <c r="B42" s="18">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="51">
+      <c r="AE41" s="54"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="13"/>
+      <c r="AM41" s="69"/>
+      <c r="AN41" s="69"/>
+      <c r="AO41" s="69"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="69"/>
+      <c r="AV41" s="69"/>
+      <c r="AW41" s="69"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="69"/>
+      <c r="BC41" s="69"/>
+      <c r="BD41" s="69"/>
+      <c r="BE41" s="69"/>
+      <c r="BF41" s="69"/>
+      <c r="BG41" s="69"/>
+      <c r="BH41" s="69"/>
+      <c r="BJ41" s="70"/>
+      <c r="BK41" s="70"/>
+      <c r="BL41" s="70"/>
+    </row>
+    <row r="42" spans="2:64" ht="9" customHeight="1">
+      <c r="B42" s="51">
+        <v>0</v>
+      </c>
+      <c r="D42" s="47">
+        <v>1</v>
+      </c>
+      <c r="E42" s="44">
         <v>1</v>
       </c>
       <c r="F42" s="12">
@@ -3418,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
-      <c r="I42" s="18">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
-        <v>1</v>
-      </c>
-      <c r="L42" s="51">
+      <c r="I42" s="51">
+        <v>0</v>
+      </c>
+      <c r="K42" s="47">
+        <v>1</v>
+      </c>
+      <c r="L42" s="44">
         <v>1</v>
       </c>
       <c r="M42" s="12">
@@ -3433,159 +3756,183 @@
       <c r="N42" s="13">
         <v>0</v>
       </c>
-      <c r="AE42" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="36"/>
-      <c r="AN42" s="36"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="36"/>
-      <c r="AR42" s="36"/>
-      <c r="AS42" s="36"/>
-      <c r="AT42" s="36"/>
-      <c r="AU42" s="36"/>
-      <c r="AV42" s="36"/>
-      <c r="AW42" s="36"/>
-      <c r="AX42" s="36"/>
-      <c r="AY42" s="36"/>
-      <c r="AZ42" s="36"/>
-      <c r="BA42" s="36"/>
-      <c r="BB42" s="36"/>
-      <c r="BD42" s="35"/>
-      <c r="BE42" s="35"/>
-      <c r="BF42" s="35"/>
-    </row>
-    <row r="43" spans="2:58" ht="9" customHeight="1">
-      <c r="B43" s="18">
+      <c r="AE42" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="13"/>
+      <c r="AM42" s="69"/>
+      <c r="AN42" s="69"/>
+      <c r="AO42" s="69"/>
+      <c r="AP42" s="69"/>
+      <c r="AQ42" s="69"/>
+      <c r="AR42" s="69"/>
+      <c r="AS42" s="69"/>
+      <c r="AT42" s="69"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="69"/>
+      <c r="AZ42" s="69"/>
+      <c r="BA42" s="69"/>
+      <c r="BB42" s="69"/>
+      <c r="BC42" s="69"/>
+      <c r="BD42" s="69"/>
+      <c r="BE42" s="69"/>
+      <c r="BF42" s="69"/>
+      <c r="BG42" s="69"/>
+      <c r="BH42" s="69"/>
+      <c r="BJ42" s="70"/>
+      <c r="BK42" s="70"/>
+      <c r="BL42" s="70"/>
+    </row>
+    <row r="43" spans="2:64" ht="9" customHeight="1">
+      <c r="B43" s="51">
         <v>1</v>
       </c>
       <c r="D43" s="10">
         <v>0</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="44">
         <v>1</v>
       </c>
       <c r="F43" s="12">
         <v>0</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="46">
         <v>1</v>
       </c>
       <c r="H43" s="12"/>
-      <c r="I43" s="18">
+      <c r="I43" s="51">
         <v>1</v>
       </c>
       <c r="K43" s="10">
         <v>0</v>
       </c>
-      <c r="L43" s="51">
+      <c r="L43" s="44">
         <v>1</v>
       </c>
       <c r="M43" s="12">
         <v>0</v>
       </c>
-      <c r="N43" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="36"/>
-      <c r="AN43" s="36"/>
-      <c r="AO43" s="36"/>
-      <c r="AP43" s="36"/>
-      <c r="AQ43" s="36"/>
-      <c r="AR43" s="36"/>
-      <c r="AS43" s="36"/>
-      <c r="AT43" s="36"/>
-      <c r="AU43" s="36"/>
-      <c r="AV43" s="36"/>
-      <c r="AW43" s="36"/>
-      <c r="AX43" s="36"/>
-      <c r="AY43" s="36"/>
-      <c r="AZ43" s="36"/>
-      <c r="BA43" s="36"/>
-      <c r="BB43" s="36"/>
-      <c r="BD43" s="35"/>
-      <c r="BE43" s="35"/>
-      <c r="BF43" s="35"/>
-    </row>
-    <row r="44" spans="2:58" ht="9" customHeight="1">
-      <c r="B44" s="18">
+      <c r="N43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="69"/>
+      <c r="AN43" s="69"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="69"/>
+      <c r="AS43" s="69"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="69"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="69"/>
+      <c r="AZ43" s="69"/>
+      <c r="BA43" s="69"/>
+      <c r="BB43" s="69"/>
+      <c r="BC43" s="69"/>
+      <c r="BD43" s="69"/>
+      <c r="BE43" s="69"/>
+      <c r="BF43" s="69"/>
+      <c r="BG43" s="69"/>
+      <c r="BH43" s="69"/>
+      <c r="BJ43" s="70"/>
+      <c r="BK43" s="70"/>
+      <c r="BL43" s="70"/>
+    </row>
+    <row r="44" spans="2:64" ht="9" customHeight="1">
+      <c r="B44" s="51">
         <v>1</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="44">
         <v>1</v>
       </c>
       <c r="F44" s="12">
         <v>0</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="46">
         <v>1</v>
       </c>
       <c r="H44" s="12"/>
-      <c r="I44" s="18">
+      <c r="I44" s="51">
         <v>1</v>
       </c>
       <c r="K44" s="10">
         <v>0</v>
       </c>
-      <c r="L44" s="51">
+      <c r="L44" s="44">
         <v>1</v>
       </c>
       <c r="M44" s="12">
         <v>0</v>
       </c>
-      <c r="N44" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="41">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="36"/>
-      <c r="AP44" s="36"/>
-      <c r="AQ44" s="36"/>
-      <c r="AR44" s="36"/>
-      <c r="AS44" s="36"/>
-      <c r="AT44" s="36"/>
-      <c r="AU44" s="36"/>
-      <c r="AV44" s="36"/>
-      <c r="AW44" s="36"/>
-      <c r="AX44" s="36"/>
-      <c r="AY44" s="36"/>
-      <c r="AZ44" s="36"/>
-      <c r="BA44" s="36"/>
-      <c r="BB44" s="36"/>
-      <c r="BD44" s="35"/>
-      <c r="BE44" s="35"/>
-      <c r="BF44" s="35"/>
-    </row>
-    <row r="45" spans="2:58" ht="9" customHeight="1">
-      <c r="B45" s="18">
+      <c r="N44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="51">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="44">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="69"/>
+      <c r="AN44" s="69"/>
+      <c r="AO44" s="69"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="69"/>
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="69"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="69"/>
+      <c r="AY44" s="69"/>
+      <c r="AZ44" s="69"/>
+      <c r="BA44" s="69"/>
+      <c r="BB44" s="69"/>
+      <c r="BC44" s="69"/>
+      <c r="BD44" s="69"/>
+      <c r="BE44" s="69"/>
+      <c r="BF44" s="69"/>
+      <c r="BG44" s="69"/>
+      <c r="BH44" s="69"/>
+      <c r="BJ44" s="70"/>
+      <c r="BK44" s="70"/>
+      <c r="BL44" s="70"/>
+    </row>
+    <row r="45" spans="2:64" ht="9" customHeight="1">
+      <c r="B45" s="51">
         <v>0</v>
       </c>
       <c r="D45" s="10">
@@ -3594,14 +3941,14 @@
       <c r="E45" s="30">
         <v>0</v>
       </c>
-      <c r="F45" s="52">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="F45" s="44">
+        <v>1</v>
+      </c>
+      <c r="G45" s="46">
         <v>1</v>
       </c>
       <c r="H45" s="12"/>
-      <c r="I45" s="18">
+      <c r="I45" s="51">
         <v>0</v>
       </c>
       <c r="K45" s="10">
@@ -3610,43 +3957,51 @@
       <c r="L45" s="30">
         <v>0</v>
       </c>
-      <c r="M45" s="52">
-        <v>1</v>
-      </c>
-      <c r="N45" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="36"/>
-      <c r="AN45" s="36"/>
-      <c r="AO45" s="36"/>
-      <c r="AP45" s="36"/>
-      <c r="AQ45" s="36"/>
-      <c r="AR45" s="36"/>
-      <c r="AS45" s="36"/>
-      <c r="AT45" s="36"/>
-      <c r="AU45" s="36"/>
-      <c r="AV45" s="36"/>
-      <c r="AW45" s="36"/>
-      <c r="AX45" s="36"/>
-      <c r="AY45" s="36"/>
-      <c r="AZ45" s="36"/>
-      <c r="BA45" s="36"/>
-      <c r="BB45" s="36"/>
-      <c r="BD45" s="35"/>
-      <c r="BE45" s="35"/>
-      <c r="BF45" s="35"/>
-    </row>
-    <row r="46" spans="2:58" ht="9" customHeight="1">
-      <c r="B46" s="18">
+      <c r="M45" s="44">
+        <v>1</v>
+      </c>
+      <c r="N45" s="46">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="46">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="69"/>
+      <c r="AN45" s="69"/>
+      <c r="AO45" s="69"/>
+      <c r="AP45" s="69"/>
+      <c r="AQ45" s="69"/>
+      <c r="AR45" s="69"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="69"/>
+      <c r="AV45" s="69"/>
+      <c r="AW45" s="69"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="69"/>
+      <c r="AZ45" s="69"/>
+      <c r="BA45" s="69"/>
+      <c r="BB45" s="69"/>
+      <c r="BC45" s="69"/>
+      <c r="BD45" s="69"/>
+      <c r="BE45" s="69"/>
+      <c r="BF45" s="69"/>
+      <c r="BG45" s="69"/>
+      <c r="BH45" s="69"/>
+      <c r="BJ45" s="70"/>
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="70"/>
+    </row>
+    <row r="46" spans="2:64" ht="9" customHeight="1">
+      <c r="B46" s="51">
         <v>0</v>
       </c>
       <c r="D46" s="10">
@@ -3662,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="12"/>
-      <c r="I46" s="18">
+      <c r="I46" s="51">
         <v>0</v>
       </c>
       <c r="K46" s="10">
@@ -3677,37 +4032,41 @@
       <c r="N46" s="13">
         <v>0</v>
       </c>
-      <c r="AE46" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36"/>
-      <c r="AW46" s="36"/>
-      <c r="AX46" s="36"/>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
-      <c r="BD46" s="35"/>
-      <c r="BE46" s="35"/>
-      <c r="BF46" s="35"/>
-    </row>
-    <row r="47" spans="2:58" ht="9" customHeight="1" thickBot="1">
-      <c r="B47" s="19">
+      <c r="AE46" s="51">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="13"/>
+      <c r="AM46" s="69"/>
+      <c r="AN46" s="69"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="69"/>
+      <c r="AR46" s="69"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="69"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="69"/>
+      <c r="AZ46" s="69"/>
+      <c r="BA46" s="69"/>
+      <c r="BB46" s="69"/>
+      <c r="BC46" s="69"/>
+      <c r="BD46" s="69"/>
+      <c r="BE46" s="69"/>
+      <c r="BF46" s="69"/>
+      <c r="BG46" s="69"/>
+      <c r="BH46" s="69"/>
+      <c r="BJ46" s="70"/>
+      <c r="BK46" s="70"/>
+      <c r="BL46" s="70"/>
+    </row>
+    <row r="47" spans="2:64" ht="9" customHeight="1" thickBot="1">
+      <c r="B47" s="52">
         <v>1</v>
       </c>
       <c r="D47" s="14">
@@ -3723,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="12"/>
-      <c r="I47" s="19">
+      <c r="I47" s="52">
         <v>1</v>
       </c>
       <c r="K47" s="14">
@@ -3738,40 +4097,44 @@
       <c r="N47" s="16">
         <v>0</v>
       </c>
-      <c r="AE47" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="36"/>
-      <c r="AQ47" s="36"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="36"/>
-      <c r="AY47" s="36"/>
-      <c r="AZ47" s="36"/>
-      <c r="BA47" s="36"/>
-      <c r="BB47" s="36"/>
-      <c r="BD47" s="35"/>
-      <c r="BE47" s="35"/>
-      <c r="BF47" s="35"/>
-    </row>
-    <row r="48" spans="2:58" ht="9" customHeight="1" thickBot="1">
+      <c r="AE47" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="16"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="69"/>
+      <c r="AO47" s="69"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+      <c r="AW47" s="69"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
+      <c r="AZ47" s="69"/>
+      <c r="BA47" s="69"/>
+      <c r="BB47" s="69"/>
+      <c r="BC47" s="69"/>
+      <c r="BD47" s="69"/>
+      <c r="BE47" s="69"/>
+      <c r="BF47" s="69"/>
+      <c r="BG47" s="69"/>
+      <c r="BH47" s="69"/>
+      <c r="BJ47" s="70"/>
+      <c r="BK47" s="70"/>
+      <c r="BL47" s="70"/>
+    </row>
+    <row r="48" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B48" s="4"/>
-      <c r="AE48" s="43"/>
-    </row>
-    <row r="49" spans="2:31" ht="9" customHeight="1">
+      <c r="AE48" s="36"/>
+    </row>
+    <row r="49" spans="2:64" ht="9" customHeight="1">
       <c r="B49" s="17">
         <v>1</v>
       </c>
@@ -3787,11 +4150,8 @@
       <c r="G49" s="9">
         <v>1</v>
       </c>
-      <c r="AE49" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" ht="9" customHeight="1">
+    </row>
+    <row r="50" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B50" s="18">
         <v>0</v>
       </c>
@@ -3807,11 +4167,8 @@
       <c r="G50" s="13">
         <v>1</v>
       </c>
-      <c r="AE50" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31" ht="9" customHeight="1">
+    </row>
+    <row r="51" spans="2:64" ht="9" customHeight="1">
       <c r="B51" s="18">
         <v>0</v>
       </c>
@@ -3827,11 +4184,44 @@
       <c r="G51" s="13">
         <v>0</v>
       </c>
-      <c r="AE51" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" ht="9" customHeight="1">
+      <c r="AE51" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="61"/>
+      <c r="AS51" s="61"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="61"/>
+      <c r="AW51" s="61"/>
+      <c r="AX51" s="61"/>
+      <c r="AY51" s="61"/>
+      <c r="AZ51" s="61"/>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61"/>
+      <c r="BC51" s="61"/>
+      <c r="BD51" s="61"/>
+      <c r="BE51" s="61"/>
+      <c r="BF51" s="61"/>
+      <c r="BG51" s="61"/>
+      <c r="BH51" s="61"/>
+      <c r="BI51" s="61"/>
+      <c r="BJ51" s="61"/>
+      <c r="BK51" s="61"/>
+      <c r="BL51" s="62"/>
+    </row>
+    <row r="52" spans="2:64" ht="9" customHeight="1">
       <c r="B52" s="18">
         <v>1</v>
       </c>
@@ -3847,11 +4237,42 @@
       <c r="G52" s="13">
         <v>1</v>
       </c>
-      <c r="AE52" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31" ht="9" customHeight="1">
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="64"/>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="64"/>
+      <c r="AK52" s="64"/>
+      <c r="AL52" s="64"/>
+      <c r="AM52" s="64"/>
+      <c r="AN52" s="64"/>
+      <c r="AO52" s="64"/>
+      <c r="AP52" s="64"/>
+      <c r="AQ52" s="64"/>
+      <c r="AR52" s="64"/>
+      <c r="AS52" s="64"/>
+      <c r="AT52" s="64"/>
+      <c r="AU52" s="64"/>
+      <c r="AV52" s="64"/>
+      <c r="AW52" s="64"/>
+      <c r="AX52" s="64"/>
+      <c r="AY52" s="64"/>
+      <c r="AZ52" s="64"/>
+      <c r="BA52" s="64"/>
+      <c r="BB52" s="64"/>
+      <c r="BC52" s="64"/>
+      <c r="BD52" s="64"/>
+      <c r="BE52" s="64"/>
+      <c r="BF52" s="64"/>
+      <c r="BG52" s="64"/>
+      <c r="BH52" s="64"/>
+      <c r="BI52" s="64"/>
+      <c r="BJ52" s="64"/>
+      <c r="BK52" s="64"/>
+      <c r="BL52" s="65"/>
+    </row>
+    <row r="53" spans="2:64" ht="9" customHeight="1">
       <c r="B53" s="18">
         <v>0</v>
       </c>
@@ -3867,11 +4288,42 @@
       <c r="G53" s="13">
         <v>1</v>
       </c>
-      <c r="AE53" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31" ht="9" customHeight="1">
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="64"/>
+      <c r="AG53" s="64"/>
+      <c r="AH53" s="64"/>
+      <c r="AI53" s="64"/>
+      <c r="AJ53" s="64"/>
+      <c r="AK53" s="64"/>
+      <c r="AL53" s="64"/>
+      <c r="AM53" s="64"/>
+      <c r="AN53" s="64"/>
+      <c r="AO53" s="64"/>
+      <c r="AP53" s="64"/>
+      <c r="AQ53" s="64"/>
+      <c r="AR53" s="64"/>
+      <c r="AS53" s="64"/>
+      <c r="AT53" s="64"/>
+      <c r="AU53" s="64"/>
+      <c r="AV53" s="64"/>
+      <c r="AW53" s="64"/>
+      <c r="AX53" s="64"/>
+      <c r="AY53" s="64"/>
+      <c r="AZ53" s="64"/>
+      <c r="BA53" s="64"/>
+      <c r="BB53" s="64"/>
+      <c r="BC53" s="64"/>
+      <c r="BD53" s="64"/>
+      <c r="BE53" s="64"/>
+      <c r="BF53" s="64"/>
+      <c r="BG53" s="64"/>
+      <c r="BH53" s="64"/>
+      <c r="BI53" s="64"/>
+      <c r="BJ53" s="64"/>
+      <c r="BK53" s="64"/>
+      <c r="BL53" s="65"/>
+    </row>
+    <row r="54" spans="2:64" ht="9" customHeight="1">
       <c r="B54" s="18">
         <v>0</v>
       </c>
@@ -3887,11 +4339,42 @@
       <c r="G54" s="13">
         <v>0</v>
       </c>
-      <c r="AE54" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31" ht="9" customHeight="1">
+      <c r="AE54" s="63"/>
+      <c r="AF54" s="64"/>
+      <c r="AG54" s="64"/>
+      <c r="AH54" s="64"/>
+      <c r="AI54" s="64"/>
+      <c r="AJ54" s="64"/>
+      <c r="AK54" s="64"/>
+      <c r="AL54" s="64"/>
+      <c r="AM54" s="64"/>
+      <c r="AN54" s="64"/>
+      <c r="AO54" s="64"/>
+      <c r="AP54" s="64"/>
+      <c r="AQ54" s="64"/>
+      <c r="AR54" s="64"/>
+      <c r="AS54" s="64"/>
+      <c r="AT54" s="64"/>
+      <c r="AU54" s="64"/>
+      <c r="AV54" s="64"/>
+      <c r="AW54" s="64"/>
+      <c r="AX54" s="64"/>
+      <c r="AY54" s="64"/>
+      <c r="AZ54" s="64"/>
+      <c r="BA54" s="64"/>
+      <c r="BB54" s="64"/>
+      <c r="BC54" s="64"/>
+      <c r="BD54" s="64"/>
+      <c r="BE54" s="64"/>
+      <c r="BF54" s="64"/>
+      <c r="BG54" s="64"/>
+      <c r="BH54" s="64"/>
+      <c r="BI54" s="64"/>
+      <c r="BJ54" s="64"/>
+      <c r="BK54" s="64"/>
+      <c r="BL54" s="65"/>
+    </row>
+    <row r="55" spans="2:64" ht="9" customHeight="1">
       <c r="B55" s="18">
         <v>1</v>
       </c>
@@ -3907,11 +4390,42 @@
       <c r="G55" s="13">
         <v>0</v>
       </c>
-      <c r="AE55" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" ht="9" customHeight="1" thickBot="1">
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="64"/>
+      <c r="AG55" s="64"/>
+      <c r="AH55" s="64"/>
+      <c r="AI55" s="64"/>
+      <c r="AJ55" s="64"/>
+      <c r="AK55" s="64"/>
+      <c r="AL55" s="64"/>
+      <c r="AM55" s="64"/>
+      <c r="AN55" s="64"/>
+      <c r="AO55" s="64"/>
+      <c r="AP55" s="64"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="64"/>
+      <c r="AS55" s="64"/>
+      <c r="AT55" s="64"/>
+      <c r="AU55" s="64"/>
+      <c r="AV55" s="64"/>
+      <c r="AW55" s="64"/>
+      <c r="AX55" s="64"/>
+      <c r="AY55" s="64"/>
+      <c r="AZ55" s="64"/>
+      <c r="BA55" s="64"/>
+      <c r="BB55" s="64"/>
+      <c r="BC55" s="64"/>
+      <c r="BD55" s="64"/>
+      <c r="BE55" s="64"/>
+      <c r="BF55" s="64"/>
+      <c r="BG55" s="64"/>
+      <c r="BH55" s="64"/>
+      <c r="BI55" s="64"/>
+      <c r="BJ55" s="64"/>
+      <c r="BK55" s="64"/>
+      <c r="BL55" s="65"/>
+    </row>
+    <row r="56" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B56" s="19">
         <v>1</v>
       </c>
@@ -3927,14 +4441,78 @@
       <c r="G56" s="16">
         <v>0</v>
       </c>
-      <c r="AE56" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" ht="9" customHeight="1" thickBot="1">
-      <c r="AE57" s="47"/>
-    </row>
-    <row r="58" spans="2:31" ht="9" customHeight="1">
+      <c r="AE56" s="63"/>
+      <c r="AF56" s="64"/>
+      <c r="AG56" s="64"/>
+      <c r="AH56" s="64"/>
+      <c r="AI56" s="64"/>
+      <c r="AJ56" s="64"/>
+      <c r="AK56" s="64"/>
+      <c r="AL56" s="64"/>
+      <c r="AM56" s="64"/>
+      <c r="AN56" s="64"/>
+      <c r="AO56" s="64"/>
+      <c r="AP56" s="64"/>
+      <c r="AQ56" s="64"/>
+      <c r="AR56" s="64"/>
+      <c r="AS56" s="64"/>
+      <c r="AT56" s="64"/>
+      <c r="AU56" s="64"/>
+      <c r="AV56" s="64"/>
+      <c r="AW56" s="64"/>
+      <c r="AX56" s="64"/>
+      <c r="AY56" s="64"/>
+      <c r="AZ56" s="64"/>
+      <c r="BA56" s="64"/>
+      <c r="BB56" s="64"/>
+      <c r="BC56" s="64"/>
+      <c r="BD56" s="64"/>
+      <c r="BE56" s="64"/>
+      <c r="BF56" s="64"/>
+      <c r="BG56" s="64"/>
+      <c r="BH56" s="64"/>
+      <c r="BI56" s="64"/>
+      <c r="BJ56" s="64"/>
+      <c r="BK56" s="64"/>
+      <c r="BL56" s="65"/>
+    </row>
+    <row r="57" spans="2:64" ht="9" customHeight="1" thickBot="1">
+      <c r="AE57" s="63"/>
+      <c r="AF57" s="64"/>
+      <c r="AG57" s="64"/>
+      <c r="AH57" s="64"/>
+      <c r="AI57" s="64"/>
+      <c r="AJ57" s="64"/>
+      <c r="AK57" s="64"/>
+      <c r="AL57" s="64"/>
+      <c r="AM57" s="64"/>
+      <c r="AN57" s="64"/>
+      <c r="AO57" s="64"/>
+      <c r="AP57" s="64"/>
+      <c r="AQ57" s="64"/>
+      <c r="AR57" s="64"/>
+      <c r="AS57" s="64"/>
+      <c r="AT57" s="64"/>
+      <c r="AU57" s="64"/>
+      <c r="AV57" s="64"/>
+      <c r="AW57" s="64"/>
+      <c r="AX57" s="64"/>
+      <c r="AY57" s="64"/>
+      <c r="AZ57" s="64"/>
+      <c r="BA57" s="64"/>
+      <c r="BB57" s="64"/>
+      <c r="BC57" s="64"/>
+      <c r="BD57" s="64"/>
+      <c r="BE57" s="64"/>
+      <c r="BF57" s="64"/>
+      <c r="BG57" s="64"/>
+      <c r="BH57" s="64"/>
+      <c r="BI57" s="64"/>
+      <c r="BJ57" s="64"/>
+      <c r="BK57" s="64"/>
+      <c r="BL57" s="65"/>
+    </row>
+    <row r="58" spans="2:64" ht="9" customHeight="1">
       <c r="B58" s="17">
         <v>1</v>
       </c>
@@ -3950,11 +4528,42 @@
       <c r="G58" s="9">
         <v>1</v>
       </c>
-      <c r="AE58" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31" ht="9" customHeight="1">
+      <c r="AE58" s="63"/>
+      <c r="AF58" s="64"/>
+      <c r="AG58" s="64"/>
+      <c r="AH58" s="64"/>
+      <c r="AI58" s="64"/>
+      <c r="AJ58" s="64"/>
+      <c r="AK58" s="64"/>
+      <c r="AL58" s="64"/>
+      <c r="AM58" s="64"/>
+      <c r="AN58" s="64"/>
+      <c r="AO58" s="64"/>
+      <c r="AP58" s="64"/>
+      <c r="AQ58" s="64"/>
+      <c r="AR58" s="64"/>
+      <c r="AS58" s="64"/>
+      <c r="AT58" s="64"/>
+      <c r="AU58" s="64"/>
+      <c r="AV58" s="64"/>
+      <c r="AW58" s="64"/>
+      <c r="AX58" s="64"/>
+      <c r="AY58" s="64"/>
+      <c r="AZ58" s="64"/>
+      <c r="BA58" s="64"/>
+      <c r="BB58" s="64"/>
+      <c r="BC58" s="64"/>
+      <c r="BD58" s="64"/>
+      <c r="BE58" s="64"/>
+      <c r="BF58" s="64"/>
+      <c r="BG58" s="64"/>
+      <c r="BH58" s="64"/>
+      <c r="BI58" s="64"/>
+      <c r="BJ58" s="64"/>
+      <c r="BK58" s="64"/>
+      <c r="BL58" s="65"/>
+    </row>
+    <row r="59" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B59" s="18">
         <v>1</v>
       </c>
@@ -3970,11 +4579,42 @@
       <c r="G59" s="13">
         <v>1</v>
       </c>
-      <c r="AE59" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:31" ht="9" customHeight="1">
+      <c r="AE59" s="66"/>
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="67"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="67"/>
+      <c r="AM59" s="67"/>
+      <c r="AN59" s="67"/>
+      <c r="AO59" s="67"/>
+      <c r="AP59" s="67"/>
+      <c r="AQ59" s="67"/>
+      <c r="AR59" s="67"/>
+      <c r="AS59" s="67"/>
+      <c r="AT59" s="67"/>
+      <c r="AU59" s="67"/>
+      <c r="AV59" s="67"/>
+      <c r="AW59" s="67"/>
+      <c r="AX59" s="67"/>
+      <c r="AY59" s="67"/>
+      <c r="AZ59" s="67"/>
+      <c r="BA59" s="67"/>
+      <c r="BB59" s="67"/>
+      <c r="BC59" s="67"/>
+      <c r="BD59" s="67"/>
+      <c r="BE59" s="67"/>
+      <c r="BF59" s="67"/>
+      <c r="BG59" s="67"/>
+      <c r="BH59" s="67"/>
+      <c r="BI59" s="67"/>
+      <c r="BJ59" s="67"/>
+      <c r="BK59" s="67"/>
+      <c r="BL59" s="68"/>
+    </row>
+    <row r="60" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B60" s="18">
         <v>0</v>
       </c>
@@ -3990,11 +4630,8 @@
       <c r="G60" s="13">
         <v>1</v>
       </c>
-      <c r="AE60" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31" ht="9" customHeight="1">
+    </row>
+    <row r="61" spans="2:64" ht="9" customHeight="1">
       <c r="B61" s="18">
         <v>1</v>
       </c>
@@ -4010,11 +4647,44 @@
       <c r="G61" s="13">
         <v>1</v>
       </c>
-      <c r="AE61" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:31" ht="9" customHeight="1">
+      <c r="AE61" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF61" s="61"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="61"/>
+      <c r="AJ61" s="61"/>
+      <c r="AK61" s="61"/>
+      <c r="AL61" s="61"/>
+      <c r="AM61" s="61"/>
+      <c r="AN61" s="61"/>
+      <c r="AO61" s="61"/>
+      <c r="AP61" s="61"/>
+      <c r="AQ61" s="61"/>
+      <c r="AR61" s="61"/>
+      <c r="AS61" s="61"/>
+      <c r="AT61" s="61"/>
+      <c r="AU61" s="61"/>
+      <c r="AV61" s="61"/>
+      <c r="AW61" s="61"/>
+      <c r="AX61" s="61"/>
+      <c r="AY61" s="61"/>
+      <c r="AZ61" s="61"/>
+      <c r="BA61" s="61"/>
+      <c r="BB61" s="61"/>
+      <c r="BC61" s="61"/>
+      <c r="BD61" s="61"/>
+      <c r="BE61" s="61"/>
+      <c r="BF61" s="61"/>
+      <c r="BG61" s="61"/>
+      <c r="BH61" s="61"/>
+      <c r="BI61" s="61"/>
+      <c r="BJ61" s="61"/>
+      <c r="BK61" s="61"/>
+      <c r="BL61" s="62"/>
+    </row>
+    <row r="62" spans="2:64" ht="9" customHeight="1">
       <c r="B62" s="18">
         <v>0</v>
       </c>
@@ -4030,11 +4700,42 @@
       <c r="G62" s="13">
         <v>1</v>
       </c>
-      <c r="AE62" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31" ht="9" customHeight="1">
+      <c r="AE62" s="63"/>
+      <c r="AF62" s="64"/>
+      <c r="AG62" s="64"/>
+      <c r="AH62" s="64"/>
+      <c r="AI62" s="64"/>
+      <c r="AJ62" s="64"/>
+      <c r="AK62" s="64"/>
+      <c r="AL62" s="64"/>
+      <c r="AM62" s="64"/>
+      <c r="AN62" s="64"/>
+      <c r="AO62" s="64"/>
+      <c r="AP62" s="64"/>
+      <c r="AQ62" s="64"/>
+      <c r="AR62" s="64"/>
+      <c r="AS62" s="64"/>
+      <c r="AT62" s="64"/>
+      <c r="AU62" s="64"/>
+      <c r="AV62" s="64"/>
+      <c r="AW62" s="64"/>
+      <c r="AX62" s="64"/>
+      <c r="AY62" s="64"/>
+      <c r="AZ62" s="64"/>
+      <c r="BA62" s="64"/>
+      <c r="BB62" s="64"/>
+      <c r="BC62" s="64"/>
+      <c r="BD62" s="64"/>
+      <c r="BE62" s="64"/>
+      <c r="BF62" s="64"/>
+      <c r="BG62" s="64"/>
+      <c r="BH62" s="64"/>
+      <c r="BI62" s="64"/>
+      <c r="BJ62" s="64"/>
+      <c r="BK62" s="64"/>
+      <c r="BL62" s="65"/>
+    </row>
+    <row r="63" spans="2:64" ht="9" customHeight="1">
       <c r="B63" s="18">
         <v>0</v>
       </c>
@@ -4050,11 +4751,42 @@
       <c r="G63" s="13">
         <v>0</v>
       </c>
-      <c r="AE63" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31" ht="9" customHeight="1">
+      <c r="AE63" s="63"/>
+      <c r="AF63" s="64"/>
+      <c r="AG63" s="64"/>
+      <c r="AH63" s="64"/>
+      <c r="AI63" s="64"/>
+      <c r="AJ63" s="64"/>
+      <c r="AK63" s="64"/>
+      <c r="AL63" s="64"/>
+      <c r="AM63" s="64"/>
+      <c r="AN63" s="64"/>
+      <c r="AO63" s="64"/>
+      <c r="AP63" s="64"/>
+      <c r="AQ63" s="64"/>
+      <c r="AR63" s="64"/>
+      <c r="AS63" s="64"/>
+      <c r="AT63" s="64"/>
+      <c r="AU63" s="64"/>
+      <c r="AV63" s="64"/>
+      <c r="AW63" s="64"/>
+      <c r="AX63" s="64"/>
+      <c r="AY63" s="64"/>
+      <c r="AZ63" s="64"/>
+      <c r="BA63" s="64"/>
+      <c r="BB63" s="64"/>
+      <c r="BC63" s="64"/>
+      <c r="BD63" s="64"/>
+      <c r="BE63" s="64"/>
+      <c r="BF63" s="64"/>
+      <c r="BG63" s="64"/>
+      <c r="BH63" s="64"/>
+      <c r="BI63" s="64"/>
+      <c r="BJ63" s="64"/>
+      <c r="BK63" s="64"/>
+      <c r="BL63" s="65"/>
+    </row>
+    <row r="64" spans="2:64" ht="9" customHeight="1">
       <c r="B64" s="18">
         <v>1</v>
       </c>
@@ -4070,11 +4802,42 @@
       <c r="G64" s="13">
         <v>0</v>
       </c>
-      <c r="AE64" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:47" ht="9" customHeight="1" thickBot="1">
+      <c r="AE64" s="63"/>
+      <c r="AF64" s="64"/>
+      <c r="AG64" s="64"/>
+      <c r="AH64" s="64"/>
+      <c r="AI64" s="64"/>
+      <c r="AJ64" s="64"/>
+      <c r="AK64" s="64"/>
+      <c r="AL64" s="64"/>
+      <c r="AM64" s="64"/>
+      <c r="AN64" s="64"/>
+      <c r="AO64" s="64"/>
+      <c r="AP64" s="64"/>
+      <c r="AQ64" s="64"/>
+      <c r="AR64" s="64"/>
+      <c r="AS64" s="64"/>
+      <c r="AT64" s="64"/>
+      <c r="AU64" s="64"/>
+      <c r="AV64" s="64"/>
+      <c r="AW64" s="64"/>
+      <c r="AX64" s="64"/>
+      <c r="AY64" s="64"/>
+      <c r="AZ64" s="64"/>
+      <c r="BA64" s="64"/>
+      <c r="BB64" s="64"/>
+      <c r="BC64" s="64"/>
+      <c r="BD64" s="64"/>
+      <c r="BE64" s="64"/>
+      <c r="BF64" s="64"/>
+      <c r="BG64" s="64"/>
+      <c r="BH64" s="64"/>
+      <c r="BI64" s="64"/>
+      <c r="BJ64" s="64"/>
+      <c r="BK64" s="64"/>
+      <c r="BL64" s="65"/>
+    </row>
+    <row r="65" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B65" s="19">
         <v>1</v>
       </c>
@@ -4090,14 +4853,78 @@
       <c r="G65" s="16">
         <v>0</v>
       </c>
-      <c r="AE65" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:47" ht="9" customHeight="1" thickBot="1">
-      <c r="AE66" s="47"/>
-    </row>
-    <row r="67" spans="2:47" ht="9" customHeight="1">
+      <c r="AE65" s="63"/>
+      <c r="AF65" s="64"/>
+      <c r="AG65" s="64"/>
+      <c r="AH65" s="64"/>
+      <c r="AI65" s="64"/>
+      <c r="AJ65" s="64"/>
+      <c r="AK65" s="64"/>
+      <c r="AL65" s="64"/>
+      <c r="AM65" s="64"/>
+      <c r="AN65" s="64"/>
+      <c r="AO65" s="64"/>
+      <c r="AP65" s="64"/>
+      <c r="AQ65" s="64"/>
+      <c r="AR65" s="64"/>
+      <c r="AS65" s="64"/>
+      <c r="AT65" s="64"/>
+      <c r="AU65" s="64"/>
+      <c r="AV65" s="64"/>
+      <c r="AW65" s="64"/>
+      <c r="AX65" s="64"/>
+      <c r="AY65" s="64"/>
+      <c r="AZ65" s="64"/>
+      <c r="BA65" s="64"/>
+      <c r="BB65" s="64"/>
+      <c r="BC65" s="64"/>
+      <c r="BD65" s="64"/>
+      <c r="BE65" s="64"/>
+      <c r="BF65" s="64"/>
+      <c r="BG65" s="64"/>
+      <c r="BH65" s="64"/>
+      <c r="BI65" s="64"/>
+      <c r="BJ65" s="64"/>
+      <c r="BK65" s="64"/>
+      <c r="BL65" s="65"/>
+    </row>
+    <row r="66" spans="2:64" ht="9" customHeight="1" thickBot="1">
+      <c r="AE66" s="63"/>
+      <c r="AF66" s="64"/>
+      <c r="AG66" s="64"/>
+      <c r="AH66" s="64"/>
+      <c r="AI66" s="64"/>
+      <c r="AJ66" s="64"/>
+      <c r="AK66" s="64"/>
+      <c r="AL66" s="64"/>
+      <c r="AM66" s="64"/>
+      <c r="AN66" s="64"/>
+      <c r="AO66" s="64"/>
+      <c r="AP66" s="64"/>
+      <c r="AQ66" s="64"/>
+      <c r="AR66" s="64"/>
+      <c r="AS66" s="64"/>
+      <c r="AT66" s="64"/>
+      <c r="AU66" s="64"/>
+      <c r="AV66" s="64"/>
+      <c r="AW66" s="64"/>
+      <c r="AX66" s="64"/>
+      <c r="AY66" s="64"/>
+      <c r="AZ66" s="64"/>
+      <c r="BA66" s="64"/>
+      <c r="BB66" s="64"/>
+      <c r="BC66" s="64"/>
+      <c r="BD66" s="64"/>
+      <c r="BE66" s="64"/>
+      <c r="BF66" s="64"/>
+      <c r="BG66" s="64"/>
+      <c r="BH66" s="64"/>
+      <c r="BI66" s="64"/>
+      <c r="BJ66" s="64"/>
+      <c r="BK66" s="64"/>
+      <c r="BL66" s="65"/>
+    </row>
+    <row r="67" spans="2:64" ht="9" customHeight="1">
       <c r="B67" s="17">
         <v>1</v>
       </c>
@@ -4113,11 +4940,42 @@
       <c r="G67" s="9">
         <v>1</v>
       </c>
-      <c r="AE67" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:47" ht="9" customHeight="1">
+      <c r="AE67" s="63"/>
+      <c r="AF67" s="64"/>
+      <c r="AG67" s="64"/>
+      <c r="AH67" s="64"/>
+      <c r="AI67" s="64"/>
+      <c r="AJ67" s="64"/>
+      <c r="AK67" s="64"/>
+      <c r="AL67" s="64"/>
+      <c r="AM67" s="64"/>
+      <c r="AN67" s="64"/>
+      <c r="AO67" s="64"/>
+      <c r="AP67" s="64"/>
+      <c r="AQ67" s="64"/>
+      <c r="AR67" s="64"/>
+      <c r="AS67" s="64"/>
+      <c r="AT67" s="64"/>
+      <c r="AU67" s="64"/>
+      <c r="AV67" s="64"/>
+      <c r="AW67" s="64"/>
+      <c r="AX67" s="64"/>
+      <c r="AY67" s="64"/>
+      <c r="AZ67" s="64"/>
+      <c r="BA67" s="64"/>
+      <c r="BB67" s="64"/>
+      <c r="BC67" s="64"/>
+      <c r="BD67" s="64"/>
+      <c r="BE67" s="64"/>
+      <c r="BF67" s="64"/>
+      <c r="BG67" s="64"/>
+      <c r="BH67" s="64"/>
+      <c r="BI67" s="64"/>
+      <c r="BJ67" s="64"/>
+      <c r="BK67" s="64"/>
+      <c r="BL67" s="65"/>
+    </row>
+    <row r="68" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B68" s="18">
         <v>0</v>
       </c>
@@ -4133,11 +4991,42 @@
       <c r="G68" s="13">
         <v>1</v>
       </c>
-      <c r="AE68" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:47" ht="9" customHeight="1">
+      <c r="AE68" s="66"/>
+      <c r="AF68" s="67"/>
+      <c r="AG68" s="67"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="67"/>
+      <c r="AM68" s="67"/>
+      <c r="AN68" s="67"/>
+      <c r="AO68" s="67"/>
+      <c r="AP68" s="67"/>
+      <c r="AQ68" s="67"/>
+      <c r="AR68" s="67"/>
+      <c r="AS68" s="67"/>
+      <c r="AT68" s="67"/>
+      <c r="AU68" s="67"/>
+      <c r="AV68" s="67"/>
+      <c r="AW68" s="67"/>
+      <c r="AX68" s="67"/>
+      <c r="AY68" s="67"/>
+      <c r="AZ68" s="67"/>
+      <c r="BA68" s="67"/>
+      <c r="BB68" s="67"/>
+      <c r="BC68" s="67"/>
+      <c r="BD68" s="67"/>
+      <c r="BE68" s="67"/>
+      <c r="BF68" s="67"/>
+      <c r="BG68" s="67"/>
+      <c r="BH68" s="67"/>
+      <c r="BI68" s="67"/>
+      <c r="BJ68" s="67"/>
+      <c r="BK68" s="67"/>
+      <c r="BL68" s="68"/>
+    </row>
+    <row r="69" spans="2:64" ht="9" customHeight="1">
       <c r="B69" s="18">
         <v>0</v>
       </c>
@@ -4153,11 +5042,8 @@
       <c r="G69" s="13">
         <v>0</v>
       </c>
-      <c r="AE69" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="70" spans="2:64" ht="9" customHeight="1">
       <c r="B70" s="18">
         <v>1</v>
       </c>
@@ -4173,11 +5059,8 @@
       <c r="G70" s="13">
         <v>1</v>
       </c>
-      <c r="AE70" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="71" spans="2:64" ht="9" customHeight="1">
       <c r="B71" s="18">
         <v>1</v>
       </c>
@@ -4193,11 +5076,8 @@
       <c r="G71" s="13">
         <v>1</v>
       </c>
-      <c r="AE71" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="72" spans="2:64" ht="9" customHeight="1">
       <c r="B72" s="18">
         <v>0</v>
       </c>
@@ -4213,11 +5093,8 @@
       <c r="G72" s="13">
         <v>1</v>
       </c>
-      <c r="AE72" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="73" spans="2:64" ht="9" customHeight="1">
       <c r="B73" s="18">
         <v>1</v>
       </c>
@@ -4233,11 +5110,8 @@
       <c r="G73" s="13">
         <v>0</v>
       </c>
-      <c r="AE73" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:47" ht="9" customHeight="1" thickBot="1">
+    </row>
+    <row r="74" spans="2:64" ht="9" customHeight="1" thickBot="1">
       <c r="B74" s="19">
         <v>1</v>
       </c>
@@ -4253,14 +5127,9 @@
       <c r="G74" s="16">
         <v>0</v>
       </c>
-      <c r="AE74" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:47" ht="9" customHeight="1" thickBot="1">
-      <c r="AE75" s="47"/>
-    </row>
-    <row r="76" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="75" spans="2:64" ht="9" customHeight="1" thickBot="1"/>
+    <row r="76" spans="2:64" ht="9" customHeight="1">
       <c r="B76" s="17">
         <v>1</v>
       </c>
@@ -4276,11 +5145,8 @@
       <c r="G76" s="9">
         <v>1</v>
       </c>
-      <c r="AE76" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="77" spans="2:64" ht="9" customHeight="1">
       <c r="B77" s="18">
         <v>1</v>
       </c>
@@ -4296,11 +5162,8 @@
       <c r="G77" s="13">
         <v>1</v>
       </c>
-      <c r="AE77" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="78" spans="2:64" ht="9" customHeight="1">
       <c r="B78" s="18">
         <v>0</v>
       </c>
@@ -4316,11 +5179,8 @@
       <c r="G78" s="13">
         <v>1</v>
       </c>
-      <c r="AE78" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="79" spans="2:64" ht="9" customHeight="1">
       <c r="B79" s="18">
         <v>1</v>
       </c>
@@ -4336,11 +5196,8 @@
       <c r="G79" s="13">
         <v>1</v>
       </c>
-      <c r="AE79" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:47" ht="9" customHeight="1">
+    </row>
+    <row r="80" spans="2:64" ht="9" customHeight="1">
       <c r="B80" s="18">
         <v>1</v>
       </c>
@@ -4356,12 +5213,9 @@
       <c r="G80" s="13">
         <v>1</v>
       </c>
-      <c r="AE80" s="45">
-        <v>1</v>
-      </c>
-      <c r="AU80" s="4"/>
-    </row>
-    <row r="81" spans="2:31" ht="9" customHeight="1">
+      <c r="AZ80" s="4"/>
+    </row>
+    <row r="81" spans="2:7" ht="9" customHeight="1">
       <c r="B81" s="18">
         <v>0</v>
       </c>
@@ -4377,11 +5231,8 @@
       <c r="G81" s="13">
         <v>1</v>
       </c>
-      <c r="AE81" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31" ht="9" customHeight="1">
+    </row>
+    <row r="82" spans="2:7" ht="9" customHeight="1">
       <c r="B82" s="18">
         <v>1</v>
       </c>
@@ -4397,11 +5248,8 @@
       <c r="G82" s="13">
         <v>0</v>
       </c>
-      <c r="AE82" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31" ht="9" customHeight="1" thickBot="1">
+    </row>
+    <row r="83" spans="2:7" ht="9" customHeight="1" thickBot="1">
       <c r="B83" s="19">
         <v>1</v>
       </c>
@@ -4417,22 +5265,22 @@
       <c r="G83" s="16">
         <v>0</v>
       </c>
-      <c r="AE83" s="46">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="BD4:BF11"/>
-    <mergeCell ref="BD13:BF20"/>
-    <mergeCell ref="BD22:BF29"/>
-    <mergeCell ref="BD31:BF38"/>
-    <mergeCell ref="BD40:BF47"/>
-    <mergeCell ref="AG4:BB11"/>
-    <mergeCell ref="AG13:BB20"/>
-    <mergeCell ref="AG22:BB29"/>
-    <mergeCell ref="AG31:BB38"/>
-    <mergeCell ref="AG40:BB47"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="AE51:BL59"/>
+    <mergeCell ref="AE61:BL68"/>
+    <mergeCell ref="AM4:BH11"/>
+    <mergeCell ref="AM13:BH20"/>
+    <mergeCell ref="AM22:BH29"/>
+    <mergeCell ref="AM31:BH38"/>
+    <mergeCell ref="AM40:BH47"/>
+    <mergeCell ref="BJ4:BL11"/>
+    <mergeCell ref="BJ13:BL20"/>
+    <mergeCell ref="BJ22:BL29"/>
+    <mergeCell ref="BJ31:BL38"/>
+    <mergeCell ref="BJ40:BL47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4831,36 +5679,36 @@
         <v>1</v>
       </c>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="36" t="s">
+      <c r="AG4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
       <c r="BC4" s="2"/>
-      <c r="BD4" s="33" t="s">
+      <c r="BD4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
@@ -4961,32 +5809,32 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="23"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="72"/>
+      <c r="BF5" s="72"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
@@ -5089,32 +5937,32 @@
         <v>0</v>
       </c>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="36"/>
-      <c r="AV6" s="36"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="36"/>
-      <c r="AY6" s="36"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
@@ -5217,32 +6065,32 @@
         <v>1</v>
       </c>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="36"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="36"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
       <c r="BC7" s="2"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
       <c r="BI7" s="2"/>
@@ -5345,32 +6193,32 @@
         <v>1</v>
       </c>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="36"/>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="36"/>
-      <c r="BB8" s="36"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
@@ -5473,32 +6321,32 @@
         <v>0</v>
       </c>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="69"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69"/>
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
       <c r="BC9" s="2"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
@@ -5599,32 +6447,32 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="23"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
       <c r="BC10" s="2"/>
-      <c r="BD10" s="34"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="72"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
@@ -5725,32 +6573,32 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="24"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="36"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
       <c r="BC11" s="2"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
+      <c r="BD11" s="72"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="72"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
@@ -5899,36 +6747,36 @@
         <v>1</v>
       </c>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="36" t="s">
+      <c r="AG13" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="36"/>
-      <c r="BB13" s="36"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
       <c r="BC13" s="2"/>
-      <c r="BD13" s="33" t="s">
+      <c r="BD13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
+      <c r="BE13" s="72"/>
+      <c r="BF13" s="72"/>
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
       <c r="BI13" s="17">
@@ -5974,7 +6822,7 @@
     </row>
     <row r="14" spans="1:84" ht="9" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="37">
+      <c r="B14" s="34">
         <v>1</v>
       </c>
       <c r="C14" s="2"/>
@@ -5991,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="37">
+      <c r="I14" s="34">
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
@@ -6011,39 +6859,39 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
       <c r="BC14" s="2"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
+      <c r="BD14" s="72"/>
+      <c r="BE14" s="72"/>
+      <c r="BF14" s="72"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="18">
         <v>0</v>
       </c>
       <c r="BJ14" s="2"/>
-      <c r="BK14" s="49">
+      <c r="BK14" s="42">
         <v>1</v>
       </c>
       <c r="BL14" s="2">
@@ -6121,32 +6969,32 @@
         <v>0</v>
       </c>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="36"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="36"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="36"/>
-      <c r="AZ15" s="36"/>
-      <c r="BA15" s="36"/>
-      <c r="BB15" s="36"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="69"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69"/>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69"/>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
+      <c r="BD15" s="72"/>
+      <c r="BE15" s="72"/>
+      <c r="BF15" s="72"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="18">
@@ -6170,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="BQ15" s="2"/>
-      <c r="BR15" s="49">
+      <c r="BR15" s="42">
         <v>0</v>
       </c>
       <c r="BS15" s="2">
@@ -6231,32 +7079,32 @@
         <v>1</v>
       </c>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="36"/>
-      <c r="BA16" s="36"/>
-      <c r="BB16" s="36"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="69"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69"/>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
       <c r="BC16" s="2"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
       <c r="BI16" s="18">
@@ -6341,32 +7189,32 @@
         <v>0</v>
       </c>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="36"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="69"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="69"/>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69"/>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
+      <c r="BD17" s="72"/>
+      <c r="BE17" s="72"/>
+      <c r="BF17" s="72"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
       <c r="BI17" s="18">
@@ -6451,32 +7299,32 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69"/>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
       <c r="BC18" s="2"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
       <c r="BI18" s="18">
@@ -6522,7 +7370,7 @@
     </row>
     <row r="19" spans="1:84" ht="9" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="37">
+      <c r="B19" s="34">
         <v>0</v>
       </c>
       <c r="C19" s="2"/>
@@ -6539,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="37">
+      <c r="I19" s="34">
         <v>1</v>
       </c>
       <c r="J19" s="2"/>
@@ -6559,32 +7407,32 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="23"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
       <c r="BC19" s="2"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
+      <c r="BD19" s="72"/>
+      <c r="BE19" s="72"/>
+      <c r="BF19" s="72"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="2"/>
       <c r="BI19" s="18">
@@ -6669,32 +7517,32 @@
         <v>0</v>
       </c>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="36"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
       <c r="BC20" s="2"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
+      <c r="BD20" s="72"/>
+      <c r="BE20" s="72"/>
+      <c r="BF20" s="72"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="19">
@@ -6879,36 +7727,36 @@
         <v>1</v>
       </c>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="36" t="s">
+      <c r="AG22" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="36"/>
-      <c r="AZ22" s="36"/>
-      <c r="BA22" s="36"/>
-      <c r="BB22" s="36"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
       <c r="BC22" s="2"/>
-      <c r="BD22" s="33" t="s">
+      <c r="BD22" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
+      <c r="BE22" s="72"/>
+      <c r="BF22" s="72"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
       <c r="BI22" s="17">
@@ -7004,32 +7852,32 @@
         <v>0</v>
       </c>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="69"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="69"/>
+      <c r="AS23" s="69"/>
+      <c r="AT23" s="69"/>
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="34"/>
+      <c r="BD23" s="72"/>
+      <c r="BE23" s="72"/>
+      <c r="BF23" s="72"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
       <c r="BI23" s="18">
@@ -7125,32 +7973,32 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
-      <c r="BA24" s="36"/>
-      <c r="BB24" s="36"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="69"/>
+      <c r="BA24" s="69"/>
+      <c r="BB24" s="69"/>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="34"/>
-      <c r="BE24" s="34"/>
-      <c r="BF24" s="34"/>
+      <c r="BD24" s="72"/>
+      <c r="BE24" s="72"/>
+      <c r="BF24" s="72"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="18">
@@ -7246,32 +8094,32 @@
         <v>1</v>
       </c>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
       <c r="BC25" s="2"/>
-      <c r="BD25" s="34"/>
-      <c r="BE25" s="34"/>
-      <c r="BF25" s="34"/>
+      <c r="BD25" s="72"/>
+      <c r="BE25" s="72"/>
+      <c r="BF25" s="72"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="2"/>
       <c r="BI25" s="18">
@@ -7314,7 +8162,7 @@
     </row>
     <row r="26" spans="1:84" ht="9" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="37">
+      <c r="B26" s="34">
         <v>1</v>
       </c>
       <c r="C26" s="2"/>
@@ -7331,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="37">
+      <c r="I26" s="34">
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
@@ -7365,39 +8213,39 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="69"/>
+      <c r="AS26" s="69"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="34"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="34"/>
+      <c r="BD26" s="72"/>
+      <c r="BE26" s="72"/>
+      <c r="BF26" s="72"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="18">
         <v>0</v>
       </c>
       <c r="BJ26" s="2"/>
-      <c r="BK26" s="49">
+      <c r="BK26" s="42">
         <v>1</v>
       </c>
       <c r="BL26" s="2">
@@ -7486,32 +8334,32 @@
         <v>0</v>
       </c>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
-      <c r="BA27" s="36"/>
-      <c r="BB27" s="36"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="69"/>
+      <c r="AQ27" s="69"/>
+      <c r="AR27" s="69"/>
+      <c r="AS27" s="69"/>
+      <c r="AT27" s="69"/>
+      <c r="AU27" s="69"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
+      <c r="BD27" s="72"/>
+      <c r="BE27" s="72"/>
+      <c r="BF27" s="72"/>
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
       <c r="BI27" s="18">
@@ -7535,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="2"/>
-      <c r="BR27" s="49">
+      <c r="BR27" s="42">
         <v>0</v>
       </c>
       <c r="BS27" s="2">
@@ -7607,32 +8455,32 @@
         <v>0</v>
       </c>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="36"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
       <c r="BC28" s="2"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
+      <c r="BD28" s="72"/>
+      <c r="BE28" s="72"/>
+      <c r="BF28" s="72"/>
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
       <c r="BI28" s="18">
@@ -7675,7 +8523,7 @@
     </row>
     <row r="29" spans="1:84" ht="9" customHeight="1" thickBot="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="38">
+      <c r="B29" s="35">
         <v>0</v>
       </c>
       <c r="C29" s="2"/>
@@ -7692,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <v>1</v>
       </c>
       <c r="J29" s="2"/>
@@ -7726,32 +8574,32 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="36"/>
-      <c r="BB29" s="36"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
+      <c r="AU29" s="69"/>
+      <c r="AV29" s="69"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="69"/>
       <c r="BC29" s="2"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="34"/>
-      <c r="BF29" s="34"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="72"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
       <c r="BI29" s="19">
@@ -7927,36 +8775,36 @@
         <v>1</v>
       </c>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="36" t="s">
+      <c r="AG31" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="36"/>
-      <c r="BB31" s="36"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="69"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="69"/>
+      <c r="AQ31" s="69"/>
+      <c r="AR31" s="69"/>
+      <c r="AS31" s="69"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="69"/>
+      <c r="AZ31" s="69"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
       <c r="BC31" s="2"/>
-      <c r="BD31" s="33" t="s">
+      <c r="BD31" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="BE31" s="34"/>
-      <c r="BF31" s="34"/>
+      <c r="BE31" s="72"/>
+      <c r="BF31" s="72"/>
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
       <c r="BI31" s="17">
@@ -8059,32 +8907,32 @@
         <v>1</v>
       </c>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="69"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="69"/>
+      <c r="AQ32" s="69"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="69"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="69"/>
+      <c r="AZ32" s="69"/>
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="34"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="34"/>
+      <c r="BD32" s="72"/>
+      <c r="BE32" s="72"/>
+      <c r="BF32" s="72"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
       <c r="BI32" s="18">
@@ -8187,32 +9035,32 @@
         <v>0</v>
       </c>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
-      <c r="AX33" s="36"/>
-      <c r="AY33" s="36"/>
-      <c r="AZ33" s="36"/>
-      <c r="BA33" s="36"/>
-      <c r="BB33" s="36"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="69"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+      <c r="AQ33" s="69"/>
+      <c r="AR33" s="69"/>
+      <c r="AS33" s="69"/>
+      <c r="AT33" s="69"/>
+      <c r="AU33" s="69"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="69"/>
+      <c r="AZ33" s="69"/>
+      <c r="BA33" s="69"/>
+      <c r="BB33" s="69"/>
       <c r="BC33" s="2"/>
-      <c r="BD33" s="34"/>
-      <c r="BE33" s="34"/>
-      <c r="BF33" s="34"/>
+      <c r="BD33" s="72"/>
+      <c r="BE33" s="72"/>
+      <c r="BF33" s="72"/>
       <c r="BG33" s="2"/>
       <c r="BH33" s="2"/>
       <c r="BI33" s="18">
@@ -8315,32 +9163,32 @@
         <v>1</v>
       </c>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36"/>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="69"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="69"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="69"/>
+      <c r="AN34" s="69"/>
+      <c r="AO34" s="69"/>
+      <c r="AP34" s="69"/>
+      <c r="AQ34" s="69"/>
+      <c r="AR34" s="69"/>
+      <c r="AS34" s="69"/>
+      <c r="AT34" s="69"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="69"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="69"/>
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
-      <c r="BF34" s="34"/>
+      <c r="BD34" s="72"/>
+      <c r="BE34" s="72"/>
+      <c r="BF34" s="72"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
       <c r="BI34" s="18">
@@ -8390,7 +9238,7 @@
     </row>
     <row r="35" spans="1:84" ht="9" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="37">
+      <c r="B35" s="34">
         <v>1</v>
       </c>
       <c r="C35" s="2"/>
@@ -8407,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="37">
+      <c r="I35" s="34">
         <v>0</v>
       </c>
       <c r="J35" s="2"/>
@@ -8441,39 +9289,39 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="23"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="36"/>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="36"/>
-      <c r="BA35" s="36"/>
-      <c r="BB35" s="36"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="69"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="69"/>
+      <c r="AO35" s="69"/>
+      <c r="AP35" s="69"/>
+      <c r="AQ35" s="69"/>
+      <c r="AR35" s="69"/>
+      <c r="AS35" s="69"/>
+      <c r="AT35" s="69"/>
+      <c r="AU35" s="69"/>
+      <c r="AV35" s="69"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="69"/>
+      <c r="AY35" s="69"/>
+      <c r="AZ35" s="69"/>
+      <c r="BA35" s="69"/>
+      <c r="BB35" s="69"/>
       <c r="BC35" s="2"/>
-      <c r="BD35" s="34"/>
-      <c r="BE35" s="34"/>
-      <c r="BF35" s="34"/>
+      <c r="BD35" s="72"/>
+      <c r="BE35" s="72"/>
+      <c r="BF35" s="72"/>
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
       <c r="BI35" s="18">
         <v>0</v>
       </c>
       <c r="BJ35" s="2"/>
-      <c r="BK35" s="49">
+      <c r="BK35" s="42">
         <v>1</v>
       </c>
       <c r="BL35" s="2">
@@ -8569,32 +9417,32 @@
         <v>0</v>
       </c>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="36"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
+      <c r="AG36" s="69"/>
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="69"/>
+      <c r="AJ36" s="69"/>
+      <c r="AK36" s="69"/>
+      <c r="AL36" s="69"/>
+      <c r="AM36" s="69"/>
+      <c r="AN36" s="69"/>
+      <c r="AO36" s="69"/>
+      <c r="AP36" s="69"/>
+      <c r="AQ36" s="69"/>
+      <c r="AR36" s="69"/>
+      <c r="AS36" s="69"/>
+      <c r="AT36" s="69"/>
+      <c r="AU36" s="69"/>
+      <c r="AV36" s="69"/>
+      <c r="AW36" s="69"/>
+      <c r="AX36" s="69"/>
+      <c r="AY36" s="69"/>
+      <c r="AZ36" s="69"/>
+      <c r="BA36" s="69"/>
+      <c r="BB36" s="69"/>
       <c r="BC36" s="2"/>
-      <c r="BD36" s="34"/>
-      <c r="BE36" s="34"/>
-      <c r="BF36" s="34"/>
+      <c r="BD36" s="72"/>
+      <c r="BE36" s="72"/>
+      <c r="BF36" s="72"/>
       <c r="BG36" s="2"/>
       <c r="BH36" s="2"/>
       <c r="BI36" s="18">
@@ -8618,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="BQ36" s="2"/>
-      <c r="BR36" s="49">
+      <c r="BR36" s="42">
         <v>0</v>
       </c>
       <c r="BS36" s="2">
@@ -8697,32 +9545,32 @@
         <v>1</v>
       </c>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="36"/>
-      <c r="AY37" s="36"/>
-      <c r="AZ37" s="36"/>
-      <c r="BA37" s="36"/>
-      <c r="BB37" s="36"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="69"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="69"/>
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="69"/>
+      <c r="AN37" s="69"/>
+      <c r="AO37" s="69"/>
+      <c r="AP37" s="69"/>
+      <c r="AQ37" s="69"/>
+      <c r="AR37" s="69"/>
+      <c r="AS37" s="69"/>
+      <c r="AT37" s="69"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="69"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="69"/>
+      <c r="AZ37" s="69"/>
+      <c r="BA37" s="69"/>
+      <c r="BB37" s="69"/>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="34"/>
-      <c r="BE37" s="34"/>
-      <c r="BF37" s="34"/>
+      <c r="BD37" s="72"/>
+      <c r="BE37" s="72"/>
+      <c r="BF37" s="72"/>
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
       <c r="BI37" s="18">
@@ -8772,7 +9620,7 @@
     </row>
     <row r="38" spans="1:84" ht="9" customHeight="1" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="38">
+      <c r="B38" s="35">
         <v>0</v>
       </c>
       <c r="C38" s="2"/>
@@ -8789,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="38">
+      <c r="I38" s="35">
         <v>1</v>
       </c>
       <c r="J38" s="2"/>
@@ -8823,32 +9671,32 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="24"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="36"/>
-      <c r="AY38" s="36"/>
-      <c r="AZ38" s="36"/>
-      <c r="BA38" s="36"/>
-      <c r="BB38" s="36"/>
+      <c r="AG38" s="69"/>
+      <c r="AH38" s="69"/>
+      <c r="AI38" s="69"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="69"/>
+      <c r="AL38" s="69"/>
+      <c r="AM38" s="69"/>
+      <c r="AN38" s="69"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="69"/>
+      <c r="AQ38" s="69"/>
+      <c r="AR38" s="69"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="69"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="69"/>
+      <c r="AZ38" s="69"/>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="69"/>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="34"/>
-      <c r="BE38" s="34"/>
-      <c r="BF38" s="34"/>
+      <c r="BD38" s="72"/>
+      <c r="BE38" s="72"/>
+      <c r="BF38" s="72"/>
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
       <c r="BI38" s="19">
@@ -9031,36 +9879,36 @@
         <v>1</v>
       </c>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="36" t="s">
+      <c r="AG40" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
-      <c r="AT40" s="36"/>
-      <c r="AU40" s="36"/>
-      <c r="AV40" s="36"/>
-      <c r="AW40" s="36"/>
-      <c r="AX40" s="36"/>
-      <c r="AY40" s="36"/>
-      <c r="AZ40" s="36"/>
-      <c r="BA40" s="36"/>
-      <c r="BB40" s="36"/>
+      <c r="AH40" s="69"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="69"/>
+      <c r="AK40" s="69"/>
+      <c r="AL40" s="69"/>
+      <c r="AM40" s="69"/>
+      <c r="AN40" s="69"/>
+      <c r="AO40" s="69"/>
+      <c r="AP40" s="69"/>
+      <c r="AQ40" s="69"/>
+      <c r="AR40" s="69"/>
+      <c r="AS40" s="69"/>
+      <c r="AT40" s="69"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="69"/>
+      <c r="AZ40" s="69"/>
+      <c r="BA40" s="69"/>
+      <c r="BB40" s="69"/>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="33" t="s">
+      <c r="BD40" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="BE40" s="34"/>
-      <c r="BF40" s="34"/>
+      <c r="BE40" s="72"/>
+      <c r="BF40" s="72"/>
       <c r="BG40" s="2"/>
       <c r="BH40" s="2"/>
       <c r="BI40" s="17">
@@ -9110,7 +9958,7 @@
     </row>
     <row r="41" spans="1:84" ht="9" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="37">
+      <c r="B41" s="34">
         <v>1</v>
       </c>
       <c r="C41" s="2"/>
@@ -9127,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="37">
+      <c r="I41" s="34">
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
@@ -9161,39 +10009,39 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="23"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36"/>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="36"/>
-      <c r="AT41" s="36"/>
-      <c r="AU41" s="36"/>
-      <c r="AV41" s="36"/>
-      <c r="AW41" s="36"/>
-      <c r="AX41" s="36"/>
-      <c r="AY41" s="36"/>
-      <c r="AZ41" s="36"/>
-      <c r="BA41" s="36"/>
-      <c r="BB41" s="36"/>
+      <c r="AG41" s="69"/>
+      <c r="AH41" s="69"/>
+      <c r="AI41" s="69"/>
+      <c r="AJ41" s="69"/>
+      <c r="AK41" s="69"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="69"/>
+      <c r="AN41" s="69"/>
+      <c r="AO41" s="69"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="69"/>
+      <c r="AV41" s="69"/>
+      <c r="AW41" s="69"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="69"/>
       <c r="BC41" s="2"/>
-      <c r="BD41" s="34"/>
-      <c r="BE41" s="34"/>
-      <c r="BF41" s="34"/>
+      <c r="BD41" s="72"/>
+      <c r="BE41" s="72"/>
+      <c r="BF41" s="72"/>
       <c r="BG41" s="2"/>
       <c r="BH41" s="2"/>
       <c r="BI41" s="18">
         <v>0</v>
       </c>
       <c r="BJ41" s="2"/>
-      <c r="BK41" s="49">
+      <c r="BK41" s="42">
         <v>1</v>
       </c>
       <c r="BL41" s="12">
@@ -9289,32 +10137,32 @@
         <v>0</v>
       </c>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="36"/>
-      <c r="AN42" s="36"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="36"/>
-      <c r="AR42" s="36"/>
-      <c r="AS42" s="36"/>
-      <c r="AT42" s="36"/>
-      <c r="AU42" s="36"/>
-      <c r="AV42" s="36"/>
-      <c r="AW42" s="36"/>
-      <c r="AX42" s="36"/>
-      <c r="AY42" s="36"/>
-      <c r="AZ42" s="36"/>
-      <c r="BA42" s="36"/>
-      <c r="BB42" s="36"/>
+      <c r="AG42" s="69"/>
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="69"/>
+      <c r="AJ42" s="69"/>
+      <c r="AK42" s="69"/>
+      <c r="AL42" s="69"/>
+      <c r="AM42" s="69"/>
+      <c r="AN42" s="69"/>
+      <c r="AO42" s="69"/>
+      <c r="AP42" s="69"/>
+      <c r="AQ42" s="69"/>
+      <c r="AR42" s="69"/>
+      <c r="AS42" s="69"/>
+      <c r="AT42" s="69"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="69"/>
+      <c r="AZ42" s="69"/>
+      <c r="BA42" s="69"/>
+      <c r="BB42" s="69"/>
       <c r="BC42" s="2"/>
-      <c r="BD42" s="34"/>
-      <c r="BE42" s="34"/>
-      <c r="BF42" s="34"/>
+      <c r="BD42" s="72"/>
+      <c r="BE42" s="72"/>
+      <c r="BF42" s="72"/>
       <c r="BG42" s="2"/>
       <c r="BH42" s="2"/>
       <c r="BI42" s="18">
@@ -9338,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="BQ42" s="2"/>
-      <c r="BR42" s="49">
+      <c r="BR42" s="42">
         <v>0</v>
       </c>
       <c r="BS42" s="12">
@@ -9417,32 +10265,32 @@
         <v>1</v>
       </c>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="36"/>
-      <c r="AN43" s="36"/>
-      <c r="AO43" s="36"/>
-      <c r="AP43" s="36"/>
-      <c r="AQ43" s="36"/>
-      <c r="AR43" s="36"/>
-      <c r="AS43" s="36"/>
-      <c r="AT43" s="36"/>
-      <c r="AU43" s="36"/>
-      <c r="AV43" s="36"/>
-      <c r="AW43" s="36"/>
-      <c r="AX43" s="36"/>
-      <c r="AY43" s="36"/>
-      <c r="AZ43" s="36"/>
-      <c r="BA43" s="36"/>
-      <c r="BB43" s="36"/>
+      <c r="AG43" s="69"/>
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="69"/>
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="69"/>
+      <c r="AL43" s="69"/>
+      <c r="AM43" s="69"/>
+      <c r="AN43" s="69"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="69"/>
+      <c r="AS43" s="69"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="69"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="69"/>
+      <c r="AZ43" s="69"/>
+      <c r="BA43" s="69"/>
+      <c r="BB43" s="69"/>
       <c r="BC43" s="2"/>
-      <c r="BD43" s="34"/>
-      <c r="BE43" s="34"/>
-      <c r="BF43" s="34"/>
+      <c r="BD43" s="72"/>
+      <c r="BE43" s="72"/>
+      <c r="BF43" s="72"/>
       <c r="BG43" s="2"/>
       <c r="BH43" s="2"/>
       <c r="BI43" s="18">
@@ -9545,32 +10393,32 @@
         <v>0</v>
       </c>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AK44" s="36"/>
-      <c r="AL44" s="36"/>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="36"/>
-      <c r="AP44" s="36"/>
-      <c r="AQ44" s="36"/>
-      <c r="AR44" s="36"/>
-      <c r="AS44" s="36"/>
-      <c r="AT44" s="36"/>
-      <c r="AU44" s="36"/>
-      <c r="AV44" s="36"/>
-      <c r="AW44" s="36"/>
-      <c r="AX44" s="36"/>
-      <c r="AY44" s="36"/>
-      <c r="AZ44" s="36"/>
-      <c r="BA44" s="36"/>
-      <c r="BB44" s="36"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="69"/>
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="69"/>
+      <c r="AM44" s="69"/>
+      <c r="AN44" s="69"/>
+      <c r="AO44" s="69"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="69"/>
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="69"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="69"/>
+      <c r="AY44" s="69"/>
+      <c r="AZ44" s="69"/>
+      <c r="BA44" s="69"/>
+      <c r="BB44" s="69"/>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="34"/>
-      <c r="BE44" s="34"/>
-      <c r="BF44" s="34"/>
+      <c r="BD44" s="72"/>
+      <c r="BE44" s="72"/>
+      <c r="BF44" s="72"/>
       <c r="BG44" s="2"/>
       <c r="BH44" s="2"/>
       <c r="BI44" s="18">
@@ -9673,32 +10521,32 @@
         <v>0</v>
       </c>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="36"/>
-      <c r="AN45" s="36"/>
-      <c r="AO45" s="36"/>
-      <c r="AP45" s="36"/>
-      <c r="AQ45" s="36"/>
-      <c r="AR45" s="36"/>
-      <c r="AS45" s="36"/>
-      <c r="AT45" s="36"/>
-      <c r="AU45" s="36"/>
-      <c r="AV45" s="36"/>
-      <c r="AW45" s="36"/>
-      <c r="AX45" s="36"/>
-      <c r="AY45" s="36"/>
-      <c r="AZ45" s="36"/>
-      <c r="BA45" s="36"/>
-      <c r="BB45" s="36"/>
+      <c r="AG45" s="69"/>
+      <c r="AH45" s="69"/>
+      <c r="AI45" s="69"/>
+      <c r="AJ45" s="69"/>
+      <c r="AK45" s="69"/>
+      <c r="AL45" s="69"/>
+      <c r="AM45" s="69"/>
+      <c r="AN45" s="69"/>
+      <c r="AO45" s="69"/>
+      <c r="AP45" s="69"/>
+      <c r="AQ45" s="69"/>
+      <c r="AR45" s="69"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="69"/>
+      <c r="AV45" s="69"/>
+      <c r="AW45" s="69"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="69"/>
+      <c r="AZ45" s="69"/>
+      <c r="BA45" s="69"/>
+      <c r="BB45" s="69"/>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="34"/>
-      <c r="BE45" s="34"/>
-      <c r="BF45" s="34"/>
+      <c r="BD45" s="72"/>
+      <c r="BE45" s="72"/>
+      <c r="BF45" s="72"/>
       <c r="BG45" s="2"/>
       <c r="BH45" s="2"/>
       <c r="BI45" s="18">
@@ -9748,7 +10596,7 @@
     </row>
     <row r="46" spans="1:84" ht="9" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="37">
+      <c r="B46" s="34">
         <v>0</v>
       </c>
       <c r="C46" s="2"/>
@@ -9765,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="37">
+      <c r="I46" s="34">
         <v>1</v>
       </c>
       <c r="J46" s="2"/>
@@ -9799,32 +10647,32 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="23"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36"/>
-      <c r="AW46" s="36"/>
-      <c r="AX46" s="36"/>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
+      <c r="AG46" s="69"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="69"/>
+      <c r="AJ46" s="69"/>
+      <c r="AK46" s="69"/>
+      <c r="AL46" s="69"/>
+      <c r="AM46" s="69"/>
+      <c r="AN46" s="69"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="69"/>
+      <c r="AR46" s="69"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="69"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="69"/>
+      <c r="AZ46" s="69"/>
+      <c r="BA46" s="69"/>
+      <c r="BB46" s="69"/>
       <c r="BC46" s="2"/>
-      <c r="BD46" s="34"/>
-      <c r="BE46" s="34"/>
-      <c r="BF46" s="34"/>
+      <c r="BD46" s="72"/>
+      <c r="BE46" s="72"/>
+      <c r="BF46" s="72"/>
       <c r="BG46" s="2"/>
       <c r="BH46" s="2"/>
       <c r="BI46" s="18">
@@ -9927,32 +10775,32 @@
         <v>1</v>
       </c>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
-      <c r="AK47" s="36"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="36"/>
-      <c r="AQ47" s="36"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="36"/>
-      <c r="AY47" s="36"/>
-      <c r="AZ47" s="36"/>
-      <c r="BA47" s="36"/>
-      <c r="BB47" s="36"/>
+      <c r="AG47" s="69"/>
+      <c r="AH47" s="69"/>
+      <c r="AI47" s="69"/>
+      <c r="AJ47" s="69"/>
+      <c r="AK47" s="69"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="69"/>
+      <c r="AO47" s="69"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+      <c r="AW47" s="69"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
+      <c r="AZ47" s="69"/>
+      <c r="BA47" s="69"/>
+      <c r="BB47" s="69"/>
       <c r="BC47" s="2"/>
-      <c r="BD47" s="34"/>
-      <c r="BE47" s="34"/>
-      <c r="BF47" s="34"/>
+      <c r="BD47" s="72"/>
+      <c r="BE47" s="72"/>
+      <c r="BF47" s="72"/>
       <c r="BG47" s="2"/>
       <c r="BH47" s="2"/>
       <c r="BI47" s="19">
@@ -10121,7 +10969,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="44">
+      <c r="AE49" s="37">
         <v>1</v>
       </c>
       <c r="AF49" s="2"/>
@@ -10219,7 +11067,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="45">
+      <c r="AE50" s="38">
         <v>1</v>
       </c>
       <c r="AF50" s="2"/>
@@ -10317,7 +11165,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="45">
+      <c r="AE51" s="38">
         <v>0</v>
       </c>
       <c r="AF51" s="2"/>
@@ -10415,7 +11263,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="45">
+      <c r="AE52" s="38">
         <v>1</v>
       </c>
       <c r="AF52" s="2"/>
@@ -10513,7 +11361,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="45">
+      <c r="AE53" s="38">
         <v>1</v>
       </c>
       <c r="AF53" s="2"/>
@@ -10611,7 +11459,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AE54" s="45">
+      <c r="AE54" s="38">
         <v>0</v>
       </c>
       <c r="AF54" s="2"/>
@@ -10709,7 +11557,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="45">
+      <c r="AE55" s="38">
         <v>1</v>
       </c>
       <c r="AF55" s="2"/>
@@ -10807,7 +11655,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="46">
+      <c r="AE56" s="39">
         <v>1</v>
       </c>
       <c r="AF56" s="2"/>
@@ -10889,7 +11737,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
-      <c r="AE57" s="47"/>
+      <c r="AE57" s="40"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
@@ -10985,7 +11833,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="44">
+      <c r="AE58" s="37">
         <v>1</v>
       </c>
       <c r="AF58" s="2"/>
@@ -11083,7 +11931,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="45">
+      <c r="AE59" s="38">
         <v>1</v>
       </c>
       <c r="AF59" s="2"/>
@@ -11181,7 +12029,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
-      <c r="AE60" s="45">
+      <c r="AE60" s="38">
         <v>0</v>
       </c>
       <c r="AF60" s="2"/>
@@ -11279,7 +12127,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
-      <c r="AE61" s="45">
+      <c r="AE61" s="38">
         <v>1</v>
       </c>
       <c r="AF61" s="2"/>
@@ -11377,7 +12225,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
-      <c r="AE62" s="45">
+      <c r="AE62" s="38">
         <v>0</v>
       </c>
       <c r="AF62" s="2"/>
@@ -11475,7 +12323,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
-      <c r="AE63" s="45">
+      <c r="AE63" s="38">
         <v>0</v>
       </c>
       <c r="AF63" s="2"/>
@@ -11573,7 +12421,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
-      <c r="AE64" s="45">
+      <c r="AE64" s="38">
         <v>1</v>
       </c>
       <c r="AF64" s="2"/>
@@ -11671,7 +12519,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
-      <c r="AE65" s="46">
+      <c r="AE65" s="39">
         <v>0</v>
       </c>
       <c r="AF65" s="2"/>
@@ -11752,7 +12600,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
-      <c r="AE66" s="47"/>
+      <c r="AE66" s="40"/>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
@@ -11842,7 +12690,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
-      <c r="AE67" s="44">
+      <c r="AE67" s="37">
         <v>1</v>
       </c>
       <c r="AF67" s="2"/>
@@ -11934,7 +12782,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
-      <c r="AE68" s="45">
+      <c r="AE68" s="38">
         <v>0</v>
       </c>
       <c r="AF68" s="2"/>
@@ -12026,7 +12874,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="45">
+      <c r="AE69" s="38">
         <v>0</v>
       </c>
       <c r="AF69" s="2"/>
@@ -12118,7 +12966,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
-      <c r="AE70" s="45">
+      <c r="AE70" s="38">
         <v>1</v>
       </c>
       <c r="AF70" s="2"/>
@@ -12210,7 +13058,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
-      <c r="AE71" s="45">
+      <c r="AE71" s="38">
         <v>1</v>
       </c>
       <c r="AF71" s="2"/>
@@ -12302,7 +13150,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
-      <c r="AE72" s="45">
+      <c r="AE72" s="38">
         <v>0</v>
       </c>
       <c r="AF72" s="2"/>
@@ -12394,7 +13242,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
-      <c r="AE73" s="45">
+      <c r="AE73" s="38">
         <v>0</v>
       </c>
       <c r="AF73" s="2"/>
@@ -12486,7 +13334,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
-      <c r="AE74" s="46">
+      <c r="AE74" s="39">
         <v>1</v>
       </c>
       <c r="AF74" s="2"/>
@@ -12545,7 +13393,7 @@
     </row>
     <row r="75" spans="1:84" ht="9" customHeight="1" thickBot="1">
       <c r="A75" s="2"/>
-      <c r="AE75" s="48"/>
+      <c r="AE75" s="41"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
@@ -12619,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="AE76" s="44">
+      <c r="AE76" s="37">
         <v>1</v>
       </c>
       <c r="AF76" s="2"/>
@@ -12695,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2"/>
-      <c r="AE77" s="45">
+      <c r="AE77" s="38">
         <v>0</v>
       </c>
       <c r="AF77" s="2"/>
@@ -12771,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="2"/>
-      <c r="AE78" s="45">
+      <c r="AE78" s="38">
         <v>0</v>
       </c>
       <c r="AF78" s="2"/>
@@ -12847,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="2"/>
-      <c r="AE79" s="45">
+      <c r="AE79" s="38">
         <v>1</v>
       </c>
       <c r="AF79" s="2"/>
@@ -12923,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="2"/>
-      <c r="AE80" s="45">
+      <c r="AE80" s="38">
         <v>0</v>
       </c>
       <c r="AF80" s="2"/>
@@ -12999,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2"/>
-      <c r="AE81" s="45">
+      <c r="AE81" s="38">
         <v>0</v>
       </c>
       <c r="AF81" s="2"/>
@@ -13075,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="2"/>
-      <c r="AE82" s="45">
+      <c r="AE82" s="38">
         <v>0</v>
       </c>
       <c r="AF82" s="2"/>
@@ -13151,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="AE83" s="46">
+      <c r="AE83" s="39">
         <v>0</v>
       </c>
       <c r="AF83" s="2"/>
@@ -13209,6 +14057,7 @@
       <c r="CF83" s="2"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="10">
     <mergeCell ref="AG4:BB11"/>
     <mergeCell ref="AG13:BB20"/>
@@ -13223,7 +14072,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" scale="71" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="74" max="1048575" man="1"/>
   </colBreaks>
